--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master Thesis Model\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3374A850-1B0C-418E-8143-A5D5796FF33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4652A1B-6477-4736-A406-2A88CDC2EF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14380,8 +14380,8 @@
   </sheetPr>
   <dimension ref="A2:BE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q6:Q9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4652A1B-6477-4736-A406-2A88CDC2EF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55059318-A4D4-42EA-9DA4-82240089D2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14380,8 +14380,8 @@
   </sheetPr>
   <dimension ref="A2:BE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15402,6 +15402,15 @@
       <c r="Q9" s="2">
         <v>2030</v>
       </c>
+      <c r="R9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.01</v>
+      </c>
       <c r="U9" s="2">
         <v>25</v>
       </c>
@@ -15841,6 +15850,15 @@
       </c>
       <c r="Q12" s="2">
         <v>2030</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0.01</v>
       </c>
       <c r="U12" s="2">
         <v>20</v>
@@ -16147,6 +16165,15 @@
       </c>
       <c r="Q15" s="2">
         <v>2030</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.01</v>
       </c>
       <c r="U15" s="2">
         <v>20</v>
@@ -16444,6 +16471,15 @@
       <c r="Q18" s="2">
         <v>2030</v>
       </c>
+      <c r="R18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0.01</v>
+      </c>
       <c r="U18" s="2">
         <v>20</v>
       </c>
@@ -16737,6 +16773,15 @@
       </c>
       <c r="Q21" s="2">
         <v>2030</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0.01</v>
       </c>
       <c r="U21" s="2">
         <v>20</v>

--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55059318-A4D4-42EA-9DA4-82240089D2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772729A4-1E3A-4932-9E4D-A599B0400F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14378,10 +14378,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:BE23"/>
+  <dimension ref="A2:BE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14926,13 +14926,13 @@
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>104</v>
@@ -14946,20 +14946,20 @@
       <c r="I6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>96</v>
+      <c r="K6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="O6" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="P6" s="2">
         <v>31.536000000000001</v>
@@ -14967,20 +14967,20 @@
       <c r="Q6" s="2">
         <v>2030</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>94</v>
+      <c r="R6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.01</v>
       </c>
       <c r="U6" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V6" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="W6" s="2">
         <v>30</v>
@@ -14994,94 +14994,95 @@
       <c r="Z6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AA6" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AB6" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AB6" s="18">
+        <v>0.88</v>
+      </c>
+      <c r="AC6" s="18">
+        <v>0.88</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>0.88</v>
+      </c>
+      <c r="AE6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AF6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AG6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AH6" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AI6" s="2" t="s">
+      <c r="AI6" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AJ6" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AK6" s="2" t="s">
+      <c r="AK6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AL6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AM6" s="2" t="s">
+      <c r="AM6" s="19" t="s">
         <v>94</v>
       </c>
       <c r="AN6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AO6" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AP6" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AQ6" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AR6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AS6" s="2" t="s">
+      <c r="AS6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AT6" s="2" t="s">
+      <c r="AT6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AU6" s="2" t="s">
+      <c r="AU6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AV6" s="2" t="s">
+      <c r="AV6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AW6" s="2" t="s">
+      <c r="AW6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="BC6" s="2">
+      <c r="BC6" s="16">
         <v>0</v>
       </c>
+      <c r="BD6" s="16"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>80</v>
@@ -15089,20 +15090,20 @@
       <c r="I7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>99</v>
+      <c r="K7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>94</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
@@ -15120,102 +15121,118 @@
         <v>94</v>
       </c>
       <c r="U7" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V7" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2">
         <v>30</v>
       </c>
-      <c r="X7" s="2">
-        <v>14000</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>30000</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>50000</v>
-      </c>
-      <c r="AA7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AA7" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AB7" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AC7" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AD7" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AK7" s="2">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>-0.36499999999999999</v>
+      <c r="AE7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH7" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI7" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ7" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK7" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AL7" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AM7" s="19">
+        <v>-3.65</v>
       </c>
       <c r="AN7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO7" s="2">
-        <f>('180 Lithium Ion Battery'!E25+'180 Lithium Ion Battery'!E27)/0.0000036</f>
-        <v>41945.222222222219</v>
-      </c>
-      <c r="AP7" s="2">
-        <f>('180 Lithium Ion Battery'!F25+'180 Lithium Ion Battery'!F27)/0.0000036</f>
-        <v>27766.555555555551</v>
-      </c>
-      <c r="AQ7" s="2">
-        <f>('180 Lithium Ion Battery'!G25+'180 Lithium Ion Battery'!G27)/0.0000036</f>
-        <v>22154.166666666664</v>
-      </c>
-      <c r="AU7" s="2">
-        <f>'180 Lithium Ion Battery'!E29/(1000000*0.0000036)</f>
-        <v>0.53169999999999995</v>
-      </c>
-      <c r="AV7" s="2">
-        <f>'180 Lithium Ion Battery'!F29/(1000000*0.0000036)</f>
-        <v>0.50216111111111106</v>
-      </c>
-      <c r="AW7" s="2">
-        <f>'180 Lithium Ion Battery'!G29/(1000000*0.0000036)</f>
-        <v>0.47262222222222222</v>
+      <c r="AO7" s="19">
+        <f>'151a Hydrogen Storage - Tanks'!E24/0.0000036</f>
+        <v>13265.914999999999</v>
+      </c>
+      <c r="AP7" s="19">
+        <f>'151a Hydrogen Storage - Tanks'!F24/0.0000036</f>
+        <v>7990.3876000000009</v>
+      </c>
+      <c r="AQ7" s="19">
+        <f>'151a Hydrogen Storage - Tanks'!G24/0.0000036</f>
+        <v>6203.1666666666661</v>
+      </c>
+      <c r="AR7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW7" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="AX7" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AY7" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BC7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="BC7" s="16">
         <v>0</v>
       </c>
+      <c r="BD7" s="16"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>104</v>
@@ -15229,20 +15246,20 @@
       <c r="I8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>102</v>
+      <c r="K8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>103</v>
+        <v>378</v>
       </c>
       <c r="P8" s="2">
         <v>31.536000000000001</v>
@@ -15250,20 +15267,20 @@
       <c r="Q8" s="2">
         <v>2030</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>94</v>
+      <c r="R8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.01</v>
       </c>
       <c r="U8" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V8" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2">
         <v>30</v>
@@ -15277,85 +15294,82 @@
       <c r="Z8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AA8" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AB8" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AB8" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AF8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AG8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AH8" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AI8" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AJ8" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AK8" s="2" t="s">
+      <c r="AK8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AL8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AM8" s="2" t="s">
+      <c r="AM8" s="19" t="s">
         <v>94</v>
       </c>
       <c r="AN8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO8" s="2">
-        <f>'180 Lithium Ion Battery'!E26*1000</f>
-        <v>170.14399999999998</v>
-      </c>
-      <c r="AP8" s="2">
-        <f>'180 Lithium Ion Battery'!F26*1000</f>
-        <v>106.33999999999999</v>
-      </c>
-      <c r="AQ8" s="2">
-        <f>'180 Lithium Ion Battery'!G26*1000</f>
-        <v>63.803999999999988</v>
-      </c>
-      <c r="AR8" s="17">
-        <f>'180 Lithium Ion Battery'!E28</f>
-        <v>0.57423599999999997</v>
-      </c>
-      <c r="AS8" s="17">
-        <f>'180 Lithium Ion Battery'!F28</f>
-        <v>0.57423599999999997</v>
-      </c>
-      <c r="AT8" s="17">
-        <f>'180 Lithium Ion Battery'!G28</f>
-        <v>0.57423599999999997</v>
-      </c>
-      <c r="AU8" s="2" t="s">
+      <c r="AO8" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AP8" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ8" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AR8" s="19">
+        <f>'151a Hydrogen Storage - Tanks'!E28/1000</f>
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="AS8" s="19">
+        <f>'151a Hydrogen Storage - Tanks'!F28/1000</f>
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="AT8" s="19">
+        <f>'151a Hydrogen Storage - Tanks'!G28/1000</f>
+        <v>0.42535999999999996</v>
+      </c>
+      <c r="AU8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AV8" s="2" t="s">
+      <c r="AV8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AW8" s="2" t="s">
+      <c r="AW8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="BC8" s="2">
+      <c r="BC8" s="16">
         <v>1</v>
       </c>
-      <c r="BD8" s="2">
+      <c r="BD8" s="16">
         <v>1</v>
       </c>
     </row>
@@ -15364,10 +15378,10 @@
         <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>110</v>
+        <v>393</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>111</v>
+        <v>397</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>104</v>
@@ -15381,20 +15395,20 @@
       <c r="I9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>111</v>
+      <c r="K9" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>378</v>
+        <v>450</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>112</v>
+      <c r="O9" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="P9" s="2">
         <v>31.536000000000001</v>
@@ -15412,52 +15426,22 @@
         <v>0.01</v>
       </c>
       <c r="U9" s="2">
+        <v>20</v>
+      </c>
+      <c r="V9" s="2">
+        <v>20</v>
+      </c>
+      <c r="W9" s="2">
         <v>25</v>
       </c>
-      <c r="V9" s="2">
-        <v>30</v>
-      </c>
-      <c r="W9" s="2">
-        <v>30</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA9" s="17" t="s">
-        <v>94</v>
-      </c>
       <c r="AB9" s="18">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="AC9" s="18">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="AD9" s="18">
-        <v>0.88</v>
-      </c>
-      <c r="AE9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH9" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI9" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ9" s="20" t="s">
-        <v>94</v>
+        <v>0.95</v>
       </c>
       <c r="AK9" s="19" t="s">
         <v>94</v>
@@ -15468,9 +15452,6 @@
       <c r="AM9" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AN9" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="AO9" s="19">
         <v>1E-4</v>
       </c>
@@ -15489,29 +15470,19 @@
       <c r="AT9" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AU9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC9" s="16">
+      <c r="BC9" s="2">
         <v>0</v>
       </c>
-      <c r="BD9" s="16"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>394</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>114</v>
+        <v>396</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>104</v>
@@ -15525,20 +15496,20 @@
       <c r="I10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>112</v>
+      <c r="K10" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>115</v>
+      <c r="O10" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
@@ -15546,35 +15517,14 @@
       <c r="Q10" s="2">
         <v>2030</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="U10" s="2">
+        <v>20</v>
+      </c>
+      <c r="V10" s="2">
+        <v>20</v>
+      </c>
+      <c r="W10" s="2">
         <v>25</v>
-      </c>
-      <c r="V10" s="2">
-        <v>30</v>
-      </c>
-      <c r="W10" s="2">
-        <v>30</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA10" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="AB10" s="18" t="s">
         <v>94</v>
@@ -15585,24 +15535,6 @@
       <c r="AD10" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AE10" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF10" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG10" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH10" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI10" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ10" s="20" t="s">
-        <v>94</v>
-      </c>
       <c r="AK10" s="19">
         <v>-3.65</v>
       </c>
@@ -15612,20 +15544,17 @@
       <c r="AM10" s="19">
         <v>-3.65</v>
       </c>
-      <c r="AN10" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="AO10" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!E24/0.0000036</f>
-        <v>13265.914999999999</v>
+        <f>'Ammonia storage'!$R$11</f>
+        <v>393.70078740157487</v>
       </c>
       <c r="AP10" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!F24/0.0000036</f>
-        <v>7990.3876000000009</v>
+        <f>'Ammonia storage'!$R$11</f>
+        <v>393.70078740157487</v>
       </c>
       <c r="AQ10" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!G24/0.0000036</f>
-        <v>6203.1666666666661</v>
+        <f>'Ammonia storage'!$R$11</f>
+        <v>393.70078740157487</v>
       </c>
       <c r="AR10" s="19" t="s">
         <v>94</v>
@@ -15636,14 +15565,17 @@
       <c r="AT10" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AU10" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV10" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW10" s="19" t="s">
-        <v>94</v>
+      <c r="AU10" s="2">
+        <f>0.05*AO10</f>
+        <v>19.685039370078744</v>
+      </c>
+      <c r="AV10" s="2">
+        <f t="shared" ref="AV10:AW10" si="0">0.05*AP10</f>
+        <v>19.685039370078744</v>
+      </c>
+      <c r="AW10" s="2">
+        <f t="shared" si="0"/>
+        <v>19.685039370078744</v>
       </c>
       <c r="AX10" s="2">
         <v>0.5</v>
@@ -15654,20 +15586,19 @@
       <c r="AZ10" s="2">
         <v>0.4</v>
       </c>
-      <c r="BC10" s="16">
+      <c r="BC10" s="2">
         <v>0</v>
       </c>
-      <c r="BD10" s="16"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>116</v>
+        <v>395</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>117</v>
+        <v>398</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>104</v>
@@ -15681,20 +15612,20 @@
       <c r="I11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>115</v>
+      <c r="K11" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>378</v>
+        <v>450</v>
       </c>
       <c r="P11" s="2">
         <v>31.536000000000001</v>
@@ -15712,52 +15643,22 @@
         <v>0.01</v>
       </c>
       <c r="U11" s="2">
+        <v>20</v>
+      </c>
+      <c r="V11" s="2">
+        <v>20</v>
+      </c>
+      <c r="W11" s="2">
         <v>25</v>
       </c>
-      <c r="V11" s="2">
-        <v>30</v>
-      </c>
-      <c r="W11" s="2">
-        <v>30</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA11" s="17" t="s">
-        <v>94</v>
-      </c>
       <c r="AB11" s="18">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC11" s="18">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AD11" s="18">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH11" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI11" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ11" s="20" t="s">
-        <v>94</v>
+        <v>0.95</v>
       </c>
       <c r="AK11" s="19" t="s">
         <v>94</v>
@@ -15768,9 +15669,6 @@
       <c r="AM11" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AN11" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="AO11" s="19">
         <v>1E-4</v>
       </c>
@@ -15780,31 +15678,13 @@
       <c r="AQ11" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AR11" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!E28/1000</f>
-        <v>0.53169999999999995</v>
-      </c>
-      <c r="AS11" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!F28/1000</f>
-        <v>0.53169999999999995</v>
-      </c>
-      <c r="AT11" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!G28/1000</f>
-        <v>0.42535999999999996</v>
-      </c>
-      <c r="AU11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC11" s="16">
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="BC11" s="2">
         <v>1</v>
       </c>
-      <c r="BD11" s="16">
+      <c r="BD11" s="2">
         <v>1</v>
       </c>
     </row>
@@ -15813,10 +15693,10 @@
         <v>109</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>104</v>
@@ -15831,19 +15711,19 @@
         <v>79</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="P12" s="2">
         <v>31.536000000000001</v>
@@ -15896,28 +15776,23 @@
       <c r="AQ12" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AR12" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS12" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT12" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC12" s="2">
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="BC12" s="16">
         <v>0</v>
       </c>
+      <c r="BD12" s="16"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>104</v>
@@ -15932,19 +15807,19 @@
         <v>79</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>94</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
@@ -15980,37 +15855,31 @@
         <v>-3.65</v>
       </c>
       <c r="AO13" s="19">
-        <f>'Ammonia storage'!$R$11</f>
-        <v>393.70078740157487</v>
+        <f>'Metanol storage'!$T$12</f>
+        <v>253.16455696202533</v>
       </c>
       <c r="AP13" s="19">
-        <f>'Ammonia storage'!$R$11</f>
-        <v>393.70078740157487</v>
+        <f>'Metanol storage'!$T$12</f>
+        <v>253.16455696202533</v>
       </c>
       <c r="AQ13" s="19">
-        <f>'Ammonia storage'!$R$11</f>
-        <v>393.70078740157487</v>
-      </c>
-      <c r="AR13" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS13" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT13" s="19" t="s">
-        <v>94</v>
-      </c>
+        <f>'Metanol storage'!$T$12</f>
+        <v>253.16455696202533</v>
+      </c>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="19"/>
       <c r="AU13" s="2">
         <f>0.05*AO13</f>
-        <v>19.685039370078744</v>
+        <v>12.658227848101268</v>
       </c>
       <c r="AV13" s="2">
-        <f t="shared" ref="AV13:AW13" si="0">0.05*AP13</f>
-        <v>19.685039370078744</v>
+        <f t="shared" ref="AV13:AW13" si="1">0.05*AP13</f>
+        <v>12.658227848101268</v>
       </c>
       <c r="AW13" s="2">
-        <f t="shared" si="0"/>
-        <v>19.685039370078744</v>
+        <f t="shared" si="1"/>
+        <v>12.658227848101268</v>
       </c>
       <c r="AX13" s="2">
         <v>0.5</v>
@@ -16021,19 +15890,20 @@
       <c r="AZ13" s="2">
         <v>0.4</v>
       </c>
-      <c r="BC13" s="2">
+      <c r="BC13" s="16">
         <v>0</v>
       </c>
+      <c r="BD13" s="16"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>104</v>
@@ -16048,19 +15918,19 @@
         <v>79</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P14" s="2">
         <v>31.536000000000001</v>
@@ -16116,10 +15986,10 @@
       <c r="AR14" s="19"/>
       <c r="AS14" s="19"/>
       <c r="AT14" s="19"/>
-      <c r="BC14" s="2">
+      <c r="BC14" s="16">
         <v>1</v>
       </c>
-      <c r="BD14" s="2">
+      <c r="BD14" s="16">
         <v>1</v>
       </c>
     </row>
@@ -16128,10 +15998,10 @@
         <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>104</v>
@@ -16146,19 +16016,19 @@
         <v>79</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="P15" s="2">
         <v>31.536000000000001</v>
@@ -16214,20 +16084,19 @@
       <c r="AR15" s="19"/>
       <c r="AS15" s="19"/>
       <c r="AT15" s="19"/>
-      <c r="BC15" s="16">
+      <c r="BC15" s="2">
         <v>0</v>
       </c>
-      <c r="BD15" s="16"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>104</v>
@@ -16242,19 +16111,19 @@
         <v>79</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>94</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="P16" s="2">
         <v>1</v>
@@ -16290,31 +16159,31 @@
         <v>-3.65</v>
       </c>
       <c r="AO16" s="19">
-        <f>'Metanol storage'!$T$12</f>
-        <v>253.16455696202533</v>
+        <f>'JETFUEL storage'!$Q$11</f>
+        <v>193.70835270416862</v>
       </c>
       <c r="AP16" s="19">
-        <f>'Metanol storage'!$T$12</f>
-        <v>253.16455696202533</v>
+        <f>'JETFUEL storage'!$Q$11</f>
+        <v>193.70835270416862</v>
       </c>
       <c r="AQ16" s="19">
-        <f>'Metanol storage'!$T$12</f>
-        <v>253.16455696202533</v>
+        <f>'JETFUEL storage'!$Q$11</f>
+        <v>193.70835270416862</v>
       </c>
       <c r="AR16" s="19"/>
       <c r="AS16" s="19"/>
       <c r="AT16" s="19"/>
       <c r="AU16" s="2">
         <f>0.05*AO16</f>
-        <v>12.658227848101268</v>
+        <v>9.6854176352084309</v>
       </c>
       <c r="AV16" s="2">
-        <f t="shared" ref="AV16:AW16" si="1">0.05*AP16</f>
-        <v>12.658227848101268</v>
+        <f t="shared" ref="AV16" si="2">0.05*AP16</f>
+        <v>9.6854176352084309</v>
       </c>
       <c r="AW16" s="2">
-        <f t="shared" si="1"/>
-        <v>12.658227848101268</v>
+        <f t="shared" ref="AW16" si="3">0.05*AQ16</f>
+        <v>9.6854176352084309</v>
       </c>
       <c r="AX16" s="2">
         <v>0.5</v>
@@ -16325,20 +16194,19 @@
       <c r="AZ16" s="2">
         <v>0.4</v>
       </c>
-      <c r="BC16" s="16">
+      <c r="BC16" s="2">
         <v>0</v>
       </c>
-      <c r="BD16" s="16"/>
     </row>
     <row r="17" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>104</v>
@@ -16353,19 +16221,19 @@
         <v>79</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P17" s="2">
         <v>31.536000000000001</v>
@@ -16421,10 +16289,10 @@
       <c r="AR17" s="19"/>
       <c r="AS17" s="19"/>
       <c r="AT17" s="19"/>
-      <c r="BC17" s="16">
+      <c r="BC17" s="2">
         <v>1</v>
       </c>
-      <c r="BD17" s="16">
+      <c r="BD17" s="2">
         <v>1</v>
       </c>
     </row>
@@ -16433,16 +16301,16 @@
         <v>109</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>104</v>
+        <v>417</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>105</v>
+        <v>424</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>80</v>
@@ -16451,22 +16319,22 @@
         <v>79</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="P18" s="2">
-        <v>31.536000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
         <v>2030</v>
@@ -16519,25 +16387,26 @@
       <c r="AR18" s="19"/>
       <c r="AS18" s="19"/>
       <c r="AT18" s="19"/>
-      <c r="BC18" s="2">
+      <c r="BC18" s="16">
         <v>0</v>
       </c>
+      <c r="BD18" s="16"/>
     </row>
     <row r="19" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>104</v>
+        <v>417</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>118</v>
+        <v>424</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>80</v>
@@ -16546,19 +16415,16 @@
         <v>79</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>94</v>
+        <v>415</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="P19" s="2">
         <v>1</v>
@@ -16594,31 +16460,31 @@
         <v>-3.65</v>
       </c>
       <c r="AO19" s="19">
-        <f>'JETFUEL storage'!$Q$11</f>
-        <v>193.70835270416862</v>
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
       </c>
       <c r="AP19" s="19">
-        <f>'JETFUEL storage'!$Q$11</f>
-        <v>193.70835270416862</v>
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
       </c>
       <c r="AQ19" s="19">
-        <f>'JETFUEL storage'!$Q$11</f>
-        <v>193.70835270416862</v>
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
       </c>
       <c r="AR19" s="19"/>
       <c r="AS19" s="19"/>
       <c r="AT19" s="19"/>
       <c r="AU19" s="2">
         <f>0.05*AO19</f>
-        <v>9.6854176352084309</v>
+        <v>5.3571428571428577</v>
       </c>
       <c r="AV19" s="2">
-        <f t="shared" ref="AV19" si="2">0.05*AP19</f>
-        <v>9.6854176352084309</v>
+        <f t="shared" ref="AV19" si="4">0.05*AP19</f>
+        <v>5.3571428571428577</v>
       </c>
       <c r="AW19" s="2">
-        <f t="shared" ref="AW19" si="3">0.05*AQ19</f>
-        <v>9.6854176352084309</v>
+        <f t="shared" ref="AW19" si="5">0.05*AQ19</f>
+        <v>5.3571428571428577</v>
       </c>
       <c r="AX19" s="2">
         <v>0.5</v>
@@ -16629,25 +16495,26 @@
       <c r="AZ19" s="2">
         <v>0.4</v>
       </c>
-      <c r="BC19" s="2">
+      <c r="BC19" s="16">
         <v>0</v>
       </c>
+      <c r="BD19" s="16"/>
     </row>
     <row r="20" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>104</v>
+        <v>417</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>105</v>
+        <v>424</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>80</v>
@@ -16656,22 +16523,22 @@
         <v>79</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P20" s="2">
-        <v>31.536000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
         <v>2030</v>
@@ -16724,312 +16591,445 @@
       <c r="AR20" s="19"/>
       <c r="AS20" s="19"/>
       <c r="AT20" s="19"/>
-      <c r="BC20" s="2">
+      <c r="BC20" s="16">
         <v>1</v>
       </c>
-      <c r="BD20" s="2">
+      <c r="BD20" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="G21" s="2" t="s">
+    <row r="33" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="N21" s="2" t="s">
+      <c r="K33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="P21" s="2">
+      <c r="N33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P33" s="2">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U33" s="2">
+        <v>20</v>
+      </c>
+      <c r="V33" s="2">
+        <v>25</v>
+      </c>
+      <c r="W33" s="2">
+        <v>30</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AP33" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ33" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AR33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P34" s="2">
         <v>1</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q34" s="2">
         <v>2030</v>
       </c>
-      <c r="R21" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="U21" s="2">
+      <c r="R34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U34" s="2">
         <v>20</v>
       </c>
-      <c r="V21" s="2">
+      <c r="V34" s="2">
+        <v>25</v>
+      </c>
+      <c r="W34" s="2">
+        <v>30</v>
+      </c>
+      <c r="X34" s="2">
+        <v>14000</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>30000</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK34" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AL34" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AM34" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AN34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO34" s="2">
+        <f>('180 Lithium Ion Battery'!E25+'180 Lithium Ion Battery'!E27)/0.0000036</f>
+        <v>41945.222222222219</v>
+      </c>
+      <c r="AP34" s="2">
+        <f>('180 Lithium Ion Battery'!F25+'180 Lithium Ion Battery'!F27)/0.0000036</f>
+        <v>27766.555555555551</v>
+      </c>
+      <c r="AQ34" s="2">
+        <f>('180 Lithium Ion Battery'!G25+'180 Lithium Ion Battery'!G27)/0.0000036</f>
+        <v>22154.166666666664</v>
+      </c>
+      <c r="AU34" s="2">
+        <f>'180 Lithium Ion Battery'!E29/(1000000*0.0000036)</f>
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="AV34" s="2">
+        <f>'180 Lithium Ion Battery'!F29/(1000000*0.0000036)</f>
+        <v>0.50216111111111106</v>
+      </c>
+      <c r="AW34" s="2">
+        <f>'180 Lithium Ion Battery'!G29/(1000000*0.0000036)</f>
+        <v>0.47262222222222222</v>
+      </c>
+      <c r="AX34" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AY34" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AZ34" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="BC34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P35" s="2">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U35" s="2">
         <v>20</v>
       </c>
-      <c r="W21" s="2">
+      <c r="V35" s="2">
         <v>25</v>
       </c>
-      <c r="AB21" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AC21" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AD21" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AK21" s="19" t="s">
+      <c r="W35" s="2">
+        <v>30</v>
+      </c>
+      <c r="X35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AL21" s="19" t="s">
+      <c r="Y35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AM21" s="19" t="s">
+      <c r="Z35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO21" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AP21" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ21" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AR21" s="19"/>
-      <c r="AS21" s="19"/>
-      <c r="AT21" s="19"/>
-      <c r="BC21" s="16">
-        <v>0</v>
-      </c>
-      <c r="BD21" s="16"/>
-    </row>
-    <row r="22" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="P22" s="2">
+      <c r="AA35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AE35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO35" s="2">
+        <f>'180 Lithium Ion Battery'!E26*1000</f>
+        <v>170.14399999999998</v>
+      </c>
+      <c r="AP35" s="2">
+        <f>'180 Lithium Ion Battery'!F26*1000</f>
+        <v>106.33999999999999</v>
+      </c>
+      <c r="AQ35" s="2">
+        <f>'180 Lithium Ion Battery'!G26*1000</f>
+        <v>63.803999999999988</v>
+      </c>
+      <c r="AR35" s="17">
+        <f>'180 Lithium Ion Battery'!E28</f>
+        <v>0.57423599999999997</v>
+      </c>
+      <c r="AS35" s="17">
+        <f>'180 Lithium Ion Battery'!F28</f>
+        <v>0.57423599999999997</v>
+      </c>
+      <c r="AT35" s="17">
+        <f>'180 Lithium Ion Battery'!G28</f>
+        <v>0.57423599999999997</v>
+      </c>
+      <c r="AU35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC35" s="2">
         <v>1</v>
       </c>
-      <c r="Q22" s="2">
-        <v>2030</v>
-      </c>
-      <c r="U22" s="2">
-        <v>20</v>
-      </c>
-      <c r="V22" s="2">
-        <v>20</v>
-      </c>
-      <c r="W22" s="2">
-        <v>25</v>
-      </c>
-      <c r="AB22" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC22" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD22" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK22" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AL22" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AM22" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AO22" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
-      </c>
-      <c r="AP22" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
-      </c>
-      <c r="AQ22" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
-      </c>
-      <c r="AR22" s="19"/>
-      <c r="AS22" s="19"/>
-      <c r="AT22" s="19"/>
-      <c r="AU22" s="2">
-        <f>0.05*AO22</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AV22" s="2">
-        <f t="shared" ref="AV22" si="4">0.05*AP22</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AW22" s="2">
-        <f t="shared" ref="AW22" si="5">0.05*AQ22</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AX22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AY22" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AZ22" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="BC22" s="16">
-        <v>0</v>
-      </c>
-      <c r="BD22" s="16"/>
-    </row>
-    <row r="23" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="P23" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>2030</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="U23" s="2">
-        <v>20</v>
-      </c>
-      <c r="V23" s="2">
-        <v>20</v>
-      </c>
-      <c r="W23" s="2">
-        <v>25</v>
-      </c>
-      <c r="AB23" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AC23" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AD23" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AK23" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL23" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM23" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO23" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AP23" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ23" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AR23" s="19"/>
-      <c r="AS23" s="19"/>
-      <c r="AT23" s="19"/>
-      <c r="BC23" s="16">
-        <v>1</v>
-      </c>
-      <c r="BD23" s="16">
+      <c r="BD35" s="2">
         <v>1</v>
       </c>
     </row>

--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772729A4-1E3A-4932-9E4D-A599B0400F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F68076F-4391-42A7-85BF-2D116512272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14380,7 +14380,7 @@
   </sheetPr>
   <dimension ref="A2:BE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F68076F-4391-42A7-85BF-2D116512272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CC7176-B385-4C35-B74F-5E471031A823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commodities" sheetId="23" r:id="rId1"/>
@@ -14380,7 +14380,7 @@
   </sheetPr>
   <dimension ref="A2:BE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="N26" s="57"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
       <c r="B27" s="59" t="s">
         <v>175</v>

--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CC7176-B385-4C35-B74F-5E471031A823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BD7694-7B72-4475-9693-AA3A43DBC072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commodities" sheetId="23" r:id="rId1"/>
@@ -14380,7 +14380,7 @@
   </sheetPr>
   <dimension ref="A2:BE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="N26" s="57"/>
     </row>
-    <row r="27" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
       <c r="B27" s="59" t="s">
         <v>175</v>
@@ -21708,8 +21708,8 @@
   </sheetPr>
   <dimension ref="D3:V11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -22068,7 +22068,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="F3" zoomScale="45" workbookViewId="0">
+    <sheetView zoomScale="32" workbookViewId="0">
       <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BD7694-7B72-4475-9693-AA3A43DBC072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E13776-76F4-43BB-B459-3D71DD727291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14378,10 +14378,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:BE35"/>
+  <dimension ref="A2:BE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14926,13 +14926,13 @@
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>104</v>
@@ -14946,20 +14946,20 @@
       <c r="I6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>111</v>
+      <c r="K6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>378</v>
+        <v>103</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="P6" s="2">
         <v>31.536000000000001</v>
@@ -14967,20 +14967,20 @@
       <c r="Q6" s="2">
         <v>2030</v>
       </c>
-      <c r="R6" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0.01</v>
+      <c r="R6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="U6" s="2">
+        <v>20</v>
+      </c>
+      <c r="V6" s="2">
         <v>25</v>
-      </c>
-      <c r="V6" s="2">
-        <v>30</v>
       </c>
       <c r="W6" s="2">
         <v>30</v>
@@ -14994,95 +14994,94 @@
       <c r="Z6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA6" s="17" t="s">
+      <c r="AA6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB6" s="18">
-        <v>0.88</v>
-      </c>
-      <c r="AC6" s="18">
-        <v>0.88</v>
-      </c>
-      <c r="AD6" s="18">
-        <v>0.88</v>
-      </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AB6" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AE6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AF6" s="19" t="s">
+      <c r="AF6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AG6" s="19" t="s">
+      <c r="AG6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AH6" s="20" t="s">
+      <c r="AH6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AI6" s="20" t="s">
+      <c r="AI6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AJ6" s="20" t="s">
+      <c r="AJ6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AK6" s="19" t="s">
+      <c r="AK6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AL6" s="19" t="s">
+      <c r="AL6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AM6" s="19" t="s">
+      <c r="AM6" s="2" t="s">
         <v>94</v>
       </c>
       <c r="AN6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO6" s="19">
+      <c r="AO6" s="2">
         <v>1E-4</v>
       </c>
-      <c r="AP6" s="19">
+      <c r="AP6" s="2">
         <v>1E-4</v>
       </c>
-      <c r="AQ6" s="19">
+      <c r="AQ6" s="2">
         <v>1E-4</v>
       </c>
-      <c r="AR6" s="19" t="s">
+      <c r="AR6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AS6" s="19" t="s">
+      <c r="AS6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AT6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AU6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AV6" s="19" t="s">
+      <c r="AV6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW6" s="19" t="s">
+      <c r="AW6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BC6" s="16">
+      <c r="BC6" s="2">
         <v>0</v>
       </c>
-      <c r="BD6" s="16"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>80</v>
@@ -15090,20 +15089,20 @@
       <c r="I7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>114</v>
+      <c r="K7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>94</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
@@ -15121,118 +15120,102 @@
         <v>94</v>
       </c>
       <c r="U7" s="2">
+        <v>20</v>
+      </c>
+      <c r="V7" s="2">
         <v>25</v>
-      </c>
-      <c r="V7" s="2">
-        <v>30</v>
       </c>
       <c r="W7" s="2">
         <v>30</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="X7" s="2">
+        <v>14000</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>30000</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AA7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA7" s="17" t="s">
+      <c r="AD7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB7" s="18" t="s">
+      <c r="AH7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC7" s="18" t="s">
+      <c r="AI7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AD7" s="18" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AE7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH7" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI7" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ7" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK7" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AL7" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AM7" s="19">
-        <v>-3.65</v>
+      <c r="AK7" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>-0.36499999999999999</v>
       </c>
       <c r="AN7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO7" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!E24/0.0000036</f>
-        <v>13265.914999999999</v>
-      </c>
-      <c r="AP7" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!F24/0.0000036</f>
-        <v>7990.3876000000009</v>
-      </c>
-      <c r="AQ7" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!G24/0.0000036</f>
-        <v>6203.1666666666661</v>
-      </c>
-      <c r="AR7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW7" s="19" t="s">
-        <v>94</v>
+      <c r="AO7" s="2">
+        <f>('180 Lithium Ion Battery'!E25+'180 Lithium Ion Battery'!E27)/0.0000036</f>
+        <v>41945.222222222219</v>
+      </c>
+      <c r="AP7" s="2">
+        <f>('180 Lithium Ion Battery'!F25+'180 Lithium Ion Battery'!F27)/0.0000036</f>
+        <v>27766.555555555551</v>
+      </c>
+      <c r="AQ7" s="2">
+        <f>('180 Lithium Ion Battery'!G25+'180 Lithium Ion Battery'!G27)/0.0000036</f>
+        <v>22154.166666666664</v>
+      </c>
+      <c r="AU7" s="2">
+        <f>'180 Lithium Ion Battery'!E29/(1000000*0.0000036)</f>
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="AV7" s="2">
+        <f>'180 Lithium Ion Battery'!F29/(1000000*0.0000036)</f>
+        <v>0.50216111111111106</v>
+      </c>
+      <c r="AW7" s="2">
+        <f>'180 Lithium Ion Battery'!G29/(1000000*0.0000036)</f>
+        <v>0.47262222222222222</v>
       </c>
       <c r="AX7" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AY7" s="2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="BC7" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="BC7" s="2">
         <v>0</v>
       </c>
-      <c r="BD7" s="16"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>104</v>
@@ -15246,20 +15229,20 @@
       <c r="I8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>117</v>
+      <c r="K8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="P8" s="2">
         <v>31.536000000000001</v>
@@ -15267,20 +15250,20 @@
       <c r="Q8" s="2">
         <v>2030</v>
       </c>
-      <c r="R8" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0.01</v>
+      <c r="R8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="U8" s="2">
+        <v>20</v>
+      </c>
+      <c r="V8" s="2">
         <v>25</v>
-      </c>
-      <c r="V8" s="2">
-        <v>30</v>
       </c>
       <c r="W8" s="2">
         <v>30</v>
@@ -15294,82 +15277,85 @@
       <c r="Z8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA8" s="17" t="s">
+      <c r="AA8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB8" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="18">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="19" t="s">
+      <c r="AB8" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AE8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AF8" s="19" t="s">
+      <c r="AF8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AG8" s="19" t="s">
+      <c r="AG8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AH8" s="20" t="s">
+      <c r="AH8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AI8" s="20" t="s">
+      <c r="AI8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AJ8" s="20" t="s">
+      <c r="AJ8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AK8" s="19" t="s">
+      <c r="AK8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AL8" s="19" t="s">
+      <c r="AL8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AM8" s="19" t="s">
+      <c r="AM8" s="2" t="s">
         <v>94</v>
       </c>
       <c r="AN8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO8" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AP8" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ8" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AR8" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!E28/1000</f>
-        <v>0.53169999999999995</v>
-      </c>
-      <c r="AS8" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!F28/1000</f>
-        <v>0.53169999999999995</v>
-      </c>
-      <c r="AT8" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!G28/1000</f>
-        <v>0.42535999999999996</v>
-      </c>
-      <c r="AU8" s="19" t="s">
+      <c r="AO8" s="2">
+        <f>'180 Lithium Ion Battery'!E26*1000</f>
+        <v>170.14399999999998</v>
+      </c>
+      <c r="AP8" s="2">
+        <f>'180 Lithium Ion Battery'!F26*1000</f>
+        <v>106.33999999999999</v>
+      </c>
+      <c r="AQ8" s="2">
+        <f>'180 Lithium Ion Battery'!G26*1000</f>
+        <v>63.803999999999988</v>
+      </c>
+      <c r="AR8" s="17">
+        <f>'180 Lithium Ion Battery'!E28</f>
+        <v>0.57423599999999997</v>
+      </c>
+      <c r="AS8" s="17">
+        <f>'180 Lithium Ion Battery'!F28</f>
+        <v>0.57423599999999997</v>
+      </c>
+      <c r="AT8" s="17">
+        <f>'180 Lithium Ion Battery'!G28</f>
+        <v>0.57423599999999997</v>
+      </c>
+      <c r="AU8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AV8" s="19" t="s">
+      <c r="AV8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW8" s="19" t="s">
+      <c r="AW8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BC8" s="16">
+      <c r="BC8" s="2">
         <v>1</v>
       </c>
-      <c r="BD8" s="16">
+      <c r="BD8" s="2">
         <v>1</v>
       </c>
     </row>
@@ -15378,10 +15364,10 @@
         <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>393</v>
+        <v>110</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>397</v>
+        <v>111</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>104</v>
@@ -15395,20 +15381,20 @@
       <c r="I9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>397</v>
+      <c r="K9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>391</v>
+      <c r="O9" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="P9" s="2">
         <v>31.536000000000001</v>
@@ -15426,22 +15412,52 @@
         <v>0.01</v>
       </c>
       <c r="U9" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V9" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA9" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="AB9" s="18">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="AC9" s="18">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="AD9" s="18">
-        <v>0.95</v>
+        <v>0.88</v>
+      </c>
+      <c r="AE9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH9" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI9" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ9" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="AK9" s="19" t="s">
         <v>94</v>
@@ -15452,6 +15468,9 @@
       <c r="AM9" s="19" t="s">
         <v>94</v>
       </c>
+      <c r="AN9" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="AO9" s="19">
         <v>1E-4</v>
       </c>
@@ -15470,19 +15489,29 @@
       <c r="AT9" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="BC9" s="2">
+      <c r="AU9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC9" s="16">
         <v>0</v>
       </c>
+      <c r="BD9" s="16"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>394</v>
+        <v>113</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>396</v>
+        <v>114</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>104</v>
@@ -15496,20 +15525,20 @@
       <c r="I10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>391</v>
+      <c r="K10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>392</v>
+      <c r="O10" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
@@ -15517,14 +15546,35 @@
       <c r="Q10" s="2">
         <v>2030</v>
       </c>
+      <c r="R10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="U10" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V10" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA10" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="AB10" s="18" t="s">
         <v>94</v>
@@ -15535,6 +15585,24 @@
       <c r="AD10" s="18" t="s">
         <v>94</v>
       </c>
+      <c r="AE10" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF10" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG10" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH10" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI10" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ10" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="AK10" s="19">
         <v>-3.65</v>
       </c>
@@ -15544,17 +15612,20 @@
       <c r="AM10" s="19">
         <v>-3.65</v>
       </c>
+      <c r="AN10" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="AO10" s="19">
-        <f>'Ammonia storage'!$R$11</f>
-        <v>393.70078740157487</v>
+        <f>'151a Hydrogen Storage - Tanks'!E24/0.0000036</f>
+        <v>13265.914999999999</v>
       </c>
       <c r="AP10" s="19">
-        <f>'Ammonia storage'!$R$11</f>
-        <v>393.70078740157487</v>
+        <f>'151a Hydrogen Storage - Tanks'!F24/0.0000036</f>
+        <v>7990.3876000000009</v>
       </c>
       <c r="AQ10" s="19">
-        <f>'Ammonia storage'!$R$11</f>
-        <v>393.70078740157487</v>
+        <f>'151a Hydrogen Storage - Tanks'!G24/0.0000036</f>
+        <v>6203.1666666666661</v>
       </c>
       <c r="AR10" s="19" t="s">
         <v>94</v>
@@ -15565,17 +15636,14 @@
       <c r="AT10" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AU10" s="2">
-        <f>0.05*AO10</f>
-        <v>19.685039370078744</v>
-      </c>
-      <c r="AV10" s="2">
-        <f t="shared" ref="AV10:AW10" si="0">0.05*AP10</f>
-        <v>19.685039370078744</v>
-      </c>
-      <c r="AW10" s="2">
-        <f t="shared" si="0"/>
-        <v>19.685039370078744</v>
+      <c r="AU10" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV10" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW10" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="AX10" s="2">
         <v>0.5</v>
@@ -15586,19 +15654,20 @@
       <c r="AZ10" s="2">
         <v>0.4</v>
       </c>
-      <c r="BC10" s="2">
+      <c r="BC10" s="16">
         <v>0</v>
       </c>
+      <c r="BD10" s="16"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>395</v>
+        <v>116</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>398</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>104</v>
@@ -15612,20 +15681,20 @@
       <c r="I11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>392</v>
+      <c r="K11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="P11" s="2">
         <v>31.536000000000001</v>
@@ -15643,22 +15712,52 @@
         <v>0.01</v>
       </c>
       <c r="U11" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V11" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="W11" s="2">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA11" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="AB11" s="18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="18">
-        <v>0.95</v>
+        <v>1</v>
+      </c>
+      <c r="AE11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH11" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI11" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ11" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="AK11" s="19" t="s">
         <v>94</v>
@@ -15669,6 +15768,9 @@
       <c r="AM11" s="19" t="s">
         <v>94</v>
       </c>
+      <c r="AN11" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="AO11" s="19">
         <v>1E-4</v>
       </c>
@@ -15678,13 +15780,31 @@
       <c r="AQ11" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AR11" s="19"/>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="19"/>
-      <c r="BC11" s="2">
+      <c r="AR11" s="19">
+        <f>'151a Hydrogen Storage - Tanks'!E28/1000</f>
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="AS11" s="19">
+        <f>'151a Hydrogen Storage - Tanks'!F28/1000</f>
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="AT11" s="19">
+        <f>'151a Hydrogen Storage - Tanks'!G28/1000</f>
+        <v>0.42535999999999996</v>
+      </c>
+      <c r="AU11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC11" s="16">
         <v>1</v>
       </c>
-      <c r="BD11" s="2">
+      <c r="BD11" s="16">
         <v>1</v>
       </c>
     </row>
@@ -15693,10 +15813,10 @@
         <v>109</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>104</v>
@@ -15711,19 +15831,19 @@
         <v>79</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="P12" s="2">
         <v>31.536000000000001</v>
@@ -15776,23 +15896,28 @@
       <c r="AQ12" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
-      <c r="BC12" s="16">
+      <c r="AR12" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS12" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT12" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC12" s="2">
         <v>0</v>
       </c>
-      <c r="BD12" s="16"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>104</v>
@@ -15807,19 +15932,19 @@
         <v>79</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>94</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
@@ -15855,31 +15980,37 @@
         <v>-3.65</v>
       </c>
       <c r="AO13" s="19">
-        <f>'Metanol storage'!$T$12</f>
-        <v>253.16455696202533</v>
+        <f>'Ammonia storage'!$R$11</f>
+        <v>393.70078740157487</v>
       </c>
       <c r="AP13" s="19">
-        <f>'Metanol storage'!$T$12</f>
-        <v>253.16455696202533</v>
+        <f>'Ammonia storage'!$R$11</f>
+        <v>393.70078740157487</v>
       </c>
       <c r="AQ13" s="19">
-        <f>'Metanol storage'!$T$12</f>
-        <v>253.16455696202533</v>
-      </c>
-      <c r="AR13" s="19"/>
-      <c r="AS13" s="19"/>
-      <c r="AT13" s="19"/>
+        <f>'Ammonia storage'!$R$11</f>
+        <v>393.70078740157487</v>
+      </c>
+      <c r="AR13" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS13" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT13" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="AU13" s="2">
         <f>0.05*AO13</f>
-        <v>12.658227848101268</v>
+        <v>19.685039370078744</v>
       </c>
       <c r="AV13" s="2">
-        <f t="shared" ref="AV13:AW13" si="1">0.05*AP13</f>
-        <v>12.658227848101268</v>
+        <f t="shared" ref="AV13:AW13" si="0">0.05*AP13</f>
+        <v>19.685039370078744</v>
       </c>
       <c r="AW13" s="2">
-        <f t="shared" si="1"/>
-        <v>12.658227848101268</v>
+        <f t="shared" si="0"/>
+        <v>19.685039370078744</v>
       </c>
       <c r="AX13" s="2">
         <v>0.5</v>
@@ -15890,20 +16021,19 @@
       <c r="AZ13" s="2">
         <v>0.4</v>
       </c>
-      <c r="BC13" s="16">
+      <c r="BC13" s="2">
         <v>0</v>
       </c>
-      <c r="BD13" s="16"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>104</v>
@@ -15918,19 +16048,19 @@
         <v>79</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="P14" s="2">
         <v>31.536000000000001</v>
@@ -15986,10 +16116,10 @@
       <c r="AR14" s="19"/>
       <c r="AS14" s="19"/>
       <c r="AT14" s="19"/>
-      <c r="BC14" s="16">
+      <c r="BC14" s="2">
         <v>1</v>
       </c>
-      <c r="BD14" s="16">
+      <c r="BD14" s="2">
         <v>1</v>
       </c>
     </row>
@@ -15998,10 +16128,10 @@
         <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>104</v>
@@ -16016,19 +16146,19 @@
         <v>79</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="P15" s="2">
         <v>31.536000000000001</v>
@@ -16084,19 +16214,20 @@
       <c r="AR15" s="19"/>
       <c r="AS15" s="19"/>
       <c r="AT15" s="19"/>
-      <c r="BC15" s="2">
+      <c r="BC15" s="16">
         <v>0</v>
       </c>
+      <c r="BD15" s="16"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>104</v>
@@ -16111,19 +16242,19 @@
         <v>79</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>94</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="P16" s="2">
         <v>1</v>
@@ -16159,31 +16290,31 @@
         <v>-3.65</v>
       </c>
       <c r="AO16" s="19">
-        <f>'JETFUEL storage'!$Q$11</f>
-        <v>193.70835270416862</v>
+        <f>'Metanol storage'!$T$12</f>
+        <v>253.16455696202533</v>
       </c>
       <c r="AP16" s="19">
-        <f>'JETFUEL storage'!$Q$11</f>
-        <v>193.70835270416862</v>
+        <f>'Metanol storage'!$T$12</f>
+        <v>253.16455696202533</v>
       </c>
       <c r="AQ16" s="19">
-        <f>'JETFUEL storage'!$Q$11</f>
-        <v>193.70835270416862</v>
+        <f>'Metanol storage'!$T$12</f>
+        <v>253.16455696202533</v>
       </c>
       <c r="AR16" s="19"/>
       <c r="AS16" s="19"/>
       <c r="AT16" s="19"/>
       <c r="AU16" s="2">
         <f>0.05*AO16</f>
-        <v>9.6854176352084309</v>
+        <v>12.658227848101268</v>
       </c>
       <c r="AV16" s="2">
-        <f t="shared" ref="AV16" si="2">0.05*AP16</f>
-        <v>9.6854176352084309</v>
+        <f t="shared" ref="AV16:AW16" si="1">0.05*AP16</f>
+        <v>12.658227848101268</v>
       </c>
       <c r="AW16" s="2">
-        <f t="shared" ref="AW16" si="3">0.05*AQ16</f>
-        <v>9.6854176352084309</v>
+        <f t="shared" si="1"/>
+        <v>12.658227848101268</v>
       </c>
       <c r="AX16" s="2">
         <v>0.5</v>
@@ -16194,19 +16325,20 @@
       <c r="AZ16" s="2">
         <v>0.4</v>
       </c>
-      <c r="BC16" s="2">
+      <c r="BC16" s="16">
         <v>0</v>
       </c>
+      <c r="BD16" s="16"/>
     </row>
     <row r="17" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>104</v>
@@ -16221,19 +16353,19 @@
         <v>79</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P17" s="2">
         <v>31.536000000000001</v>
@@ -16289,10 +16421,10 @@
       <c r="AR17" s="19"/>
       <c r="AS17" s="19"/>
       <c r="AT17" s="19"/>
-      <c r="BC17" s="2">
+      <c r="BC17" s="16">
         <v>1</v>
       </c>
-      <c r="BD17" s="2">
+      <c r="BD17" s="16">
         <v>1</v>
       </c>
     </row>
@@ -16301,16 +16433,16 @@
         <v>109</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>417</v>
+        <v>104</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>424</v>
+        <v>105</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>80</v>
@@ -16319,22 +16451,22 @@
         <v>79</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>31.536000000000001</v>
       </c>
       <c r="Q18" s="2">
         <v>2030</v>
@@ -16387,26 +16519,25 @@
       <c r="AR18" s="19"/>
       <c r="AS18" s="19"/>
       <c r="AT18" s="19"/>
-      <c r="BC18" s="16">
+      <c r="BC18" s="2">
         <v>0</v>
       </c>
-      <c r="BD18" s="16"/>
     </row>
     <row r="19" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>417</v>
+        <v>104</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>424</v>
+        <v>118</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>80</v>
@@ -16415,16 +16546,19 @@
         <v>79</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="P19" s="2">
         <v>1</v>
@@ -16460,31 +16594,31 @@
         <v>-3.65</v>
       </c>
       <c r="AO19" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
+        <f>'JETFUEL storage'!$Q$11</f>
+        <v>193.70835270416862</v>
       </c>
       <c r="AP19" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
+        <f>'JETFUEL storage'!$Q$11</f>
+        <v>193.70835270416862</v>
       </c>
       <c r="AQ19" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
+        <f>'JETFUEL storage'!$Q$11</f>
+        <v>193.70835270416862</v>
       </c>
       <c r="AR19" s="19"/>
       <c r="AS19" s="19"/>
       <c r="AT19" s="19"/>
       <c r="AU19" s="2">
         <f>0.05*AO19</f>
-        <v>5.3571428571428577</v>
+        <v>9.6854176352084309</v>
       </c>
       <c r="AV19" s="2">
-        <f t="shared" ref="AV19" si="4">0.05*AP19</f>
-        <v>5.3571428571428577</v>
+        <f t="shared" ref="AV19" si="2">0.05*AP19</f>
+        <v>9.6854176352084309</v>
       </c>
       <c r="AW19" s="2">
-        <f t="shared" ref="AW19" si="5">0.05*AQ19</f>
-        <v>5.3571428571428577</v>
+        <f t="shared" ref="AW19" si="3">0.05*AQ19</f>
+        <v>9.6854176352084309</v>
       </c>
       <c r="AX19" s="2">
         <v>0.5</v>
@@ -16495,26 +16629,25 @@
       <c r="AZ19" s="2">
         <v>0.4</v>
       </c>
-      <c r="BC19" s="16">
+      <c r="BC19" s="2">
         <v>0</v>
       </c>
-      <c r="BD19" s="16"/>
     </row>
     <row r="20" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>417</v>
+        <v>104</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>424</v>
+        <v>105</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>80</v>
@@ -16523,22 +16656,22 @@
         <v>79</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>31.536000000000001</v>
       </c>
       <c r="Q20" s="2">
         <v>2030</v>
@@ -16591,445 +16724,312 @@
       <c r="AR20" s="19"/>
       <c r="AS20" s="19"/>
       <c r="AT20" s="19"/>
-      <c r="BC20" s="16">
+      <c r="BC20" s="2">
         <v>1</v>
       </c>
-      <c r="BD20" s="16">
+      <c r="BD20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="2" t="s">
+    <row r="21" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M33" s="2" t="s">
+      <c r="K21" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="O21" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="U21" s="2">
+        <v>20</v>
+      </c>
+      <c r="V21" s="2">
+        <v>20</v>
+      </c>
+      <c r="W21" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB21" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AC21" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AD21" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AK21" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="O33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P33" s="2">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="Q33" s="2">
+      <c r="AL21" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM21" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO21" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AP21" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ21" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AR21" s="19"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="19"/>
+      <c r="BC21" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="16"/>
+    </row>
+    <row r="22" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
         <v>2030</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="U22" s="2">
+        <v>20</v>
+      </c>
+      <c r="V22" s="2">
+        <v>20</v>
+      </c>
+      <c r="W22" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB22" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="AC22" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="T33" s="2" t="s">
+      <c r="AD22" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="U33" s="2">
+      <c r="AK22" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AL22" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AM22" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AO22" s="19">
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
+      </c>
+      <c r="AP22" s="19">
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
+      </c>
+      <c r="AQ22" s="19">
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
+      </c>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="2">
+        <f>0.05*AO22</f>
+        <v>5.3571428571428577</v>
+      </c>
+      <c r="AV22" s="2">
+        <f t="shared" ref="AV22" si="4">0.05*AP22</f>
+        <v>5.3571428571428577</v>
+      </c>
+      <c r="AW22" s="2">
+        <f t="shared" ref="AW22" si="5">0.05*AQ22</f>
+        <v>5.3571428571428577</v>
+      </c>
+      <c r="AX22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AY22" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AZ22" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="BC22" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="16"/>
+    </row>
+    <row r="23" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="U23" s="2">
         <v>20</v>
       </c>
-      <c r="V33" s="2">
+      <c r="V23" s="2">
+        <v>20</v>
+      </c>
+      <c r="W23" s="2">
         <v>25</v>
       </c>
-      <c r="W33" s="2">
-        <v>30</v>
-      </c>
-      <c r="X33" s="2" t="s">
+      <c r="AB23" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AC23" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AD23" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AK23" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="Y33" s="2" t="s">
+      <c r="AL23" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="Z33" s="2" t="s">
+      <c r="AM23" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AA33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB33" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="AC33" s="2">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="AD33" s="2">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="AE33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO33" s="2">
+      <c r="AO23" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AP33" s="2">
+      <c r="AP23" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AQ33" s="2">
+      <c r="AQ23" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AR33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="P34" s="2">
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="BC23" s="16">
         <v>1</v>
       </c>
-      <c r="Q34" s="2">
-        <v>2030</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U34" s="2">
-        <v>20</v>
-      </c>
-      <c r="V34" s="2">
-        <v>25</v>
-      </c>
-      <c r="W34" s="2">
-        <v>30</v>
-      </c>
-      <c r="X34" s="2">
-        <v>14000</v>
-      </c>
-      <c r="Y34" s="2">
-        <v>30000</v>
-      </c>
-      <c r="Z34" s="2">
-        <v>50000</v>
-      </c>
-      <c r="AA34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK34" s="2">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="AL34" s="2">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="AM34" s="2">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="AN34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO34" s="2">
-        <f>('180 Lithium Ion Battery'!E25+'180 Lithium Ion Battery'!E27)/0.0000036</f>
-        <v>41945.222222222219</v>
-      </c>
-      <c r="AP34" s="2">
-        <f>('180 Lithium Ion Battery'!F25+'180 Lithium Ion Battery'!F27)/0.0000036</f>
-        <v>27766.555555555551</v>
-      </c>
-      <c r="AQ34" s="2">
-        <f>('180 Lithium Ion Battery'!G25+'180 Lithium Ion Battery'!G27)/0.0000036</f>
-        <v>22154.166666666664</v>
-      </c>
-      <c r="AU34" s="2">
-        <f>'180 Lithium Ion Battery'!E29/(1000000*0.0000036)</f>
-        <v>0.53169999999999995</v>
-      </c>
-      <c r="AV34" s="2">
-        <f>'180 Lithium Ion Battery'!F29/(1000000*0.0000036)</f>
-        <v>0.50216111111111106</v>
-      </c>
-      <c r="AW34" s="2">
-        <f>'180 Lithium Ion Battery'!G29/(1000000*0.0000036)</f>
-        <v>0.47262222222222222</v>
-      </c>
-      <c r="AX34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AY34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AZ34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BC34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P35" s="2">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>2030</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U35" s="2">
-        <v>20</v>
-      </c>
-      <c r="V35" s="2">
-        <v>25</v>
-      </c>
-      <c r="W35" s="2">
-        <v>30</v>
-      </c>
-      <c r="X35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB35" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="AC35" s="2">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="AD35" s="2">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="AE35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO35" s="2">
-        <f>'180 Lithium Ion Battery'!E26*1000</f>
-        <v>170.14399999999998</v>
-      </c>
-      <c r="AP35" s="2">
-        <f>'180 Lithium Ion Battery'!F26*1000</f>
-        <v>106.33999999999999</v>
-      </c>
-      <c r="AQ35" s="2">
-        <f>'180 Lithium Ion Battery'!G26*1000</f>
-        <v>63.803999999999988</v>
-      </c>
-      <c r="AR35" s="17">
-        <f>'180 Lithium Ion Battery'!E28</f>
-        <v>0.57423599999999997</v>
-      </c>
-      <c r="AS35" s="17">
-        <f>'180 Lithium Ion Battery'!F28</f>
-        <v>0.57423599999999997</v>
-      </c>
-      <c r="AT35" s="17">
-        <f>'180 Lithium Ion Battery'!G28</f>
-        <v>0.57423599999999997</v>
-      </c>
-      <c r="AU35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC35" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD35" s="2">
+      <c r="BD23" s="16">
         <v>1</v>
       </c>
     </row>

--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E13776-76F4-43BB-B459-3D71DD727291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C32336-45B0-4613-8726-23E68725DFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14378,10 +14378,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:BE23"/>
+  <dimension ref="A2:BE33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14926,13 +14926,13 @@
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>104</v>
@@ -14946,20 +14946,20 @@
       <c r="I6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>96</v>
+      <c r="K6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="O6" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="P6" s="2">
         <v>31.536000000000001</v>
@@ -14967,20 +14967,20 @@
       <c r="Q6" s="2">
         <v>2030</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>94</v>
+      <c r="R6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.01</v>
       </c>
       <c r="U6" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V6" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="W6" s="2">
         <v>30</v>
@@ -14994,94 +14994,95 @@
       <c r="Z6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AA6" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AB6" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AB6" s="18">
+        <v>0.88</v>
+      </c>
+      <c r="AC6" s="18">
+        <v>0.88</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>0.88</v>
+      </c>
+      <c r="AE6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AF6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AG6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AH6" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AI6" s="2" t="s">
+      <c r="AI6" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AJ6" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AK6" s="2" t="s">
+      <c r="AK6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AL6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AM6" s="2" t="s">
+      <c r="AM6" s="19" t="s">
         <v>94</v>
       </c>
       <c r="AN6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AO6" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AP6" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AQ6" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AR6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AS6" s="2" t="s">
+      <c r="AS6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AT6" s="2" t="s">
+      <c r="AT6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AU6" s="2" t="s">
+      <c r="AU6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AV6" s="2" t="s">
+      <c r="AV6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AW6" s="2" t="s">
+      <c r="AW6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="BC6" s="2">
+      <c r="BC6" s="16">
         <v>0</v>
       </c>
+      <c r="BD6" s="16"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>80</v>
@@ -15089,20 +15090,20 @@
       <c r="I7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>99</v>
+      <c r="K7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>94</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
@@ -15120,102 +15121,118 @@
         <v>94</v>
       </c>
       <c r="U7" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V7" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2">
         <v>30</v>
       </c>
-      <c r="X7" s="2">
-        <v>14000</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>30000</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>50000</v>
-      </c>
-      <c r="AA7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AA7" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AB7" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AC7" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AD7" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AK7" s="2">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>-0.36499999999999999</v>
+      <c r="AE7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH7" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI7" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ7" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK7" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AL7" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AM7" s="19">
+        <v>-3.65</v>
       </c>
       <c r="AN7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO7" s="2">
-        <f>('180 Lithium Ion Battery'!E25+'180 Lithium Ion Battery'!E27)/0.0000036</f>
-        <v>41945.222222222219</v>
-      </c>
-      <c r="AP7" s="2">
-        <f>('180 Lithium Ion Battery'!F25+'180 Lithium Ion Battery'!F27)/0.0000036</f>
-        <v>27766.555555555551</v>
-      </c>
-      <c r="AQ7" s="2">
-        <f>('180 Lithium Ion Battery'!G25+'180 Lithium Ion Battery'!G27)/0.0000036</f>
-        <v>22154.166666666664</v>
-      </c>
-      <c r="AU7" s="2">
-        <f>'180 Lithium Ion Battery'!E29/(1000000*0.0000036)</f>
-        <v>0.53169999999999995</v>
-      </c>
-      <c r="AV7" s="2">
-        <f>'180 Lithium Ion Battery'!F29/(1000000*0.0000036)</f>
-        <v>0.50216111111111106</v>
-      </c>
-      <c r="AW7" s="2">
-        <f>'180 Lithium Ion Battery'!G29/(1000000*0.0000036)</f>
-        <v>0.47262222222222222</v>
+      <c r="AO7" s="19">
+        <f>'151a Hydrogen Storage - Tanks'!E24/0.0000036</f>
+        <v>13265.914999999999</v>
+      </c>
+      <c r="AP7" s="19">
+        <f>'151a Hydrogen Storage - Tanks'!F24/0.0000036</f>
+        <v>7990.3876000000009</v>
+      </c>
+      <c r="AQ7" s="19">
+        <f>'151a Hydrogen Storage - Tanks'!G24/0.0000036</f>
+        <v>6203.1666666666661</v>
+      </c>
+      <c r="AR7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW7" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="AX7" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AY7" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BC7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="BC7" s="16">
         <v>0</v>
       </c>
+      <c r="BD7" s="16"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>104</v>
@@ -15229,20 +15246,20 @@
       <c r="I8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>102</v>
+      <c r="K8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>103</v>
+        <v>378</v>
       </c>
       <c r="P8" s="2">
         <v>31.536000000000001</v>
@@ -15250,20 +15267,20 @@
       <c r="Q8" s="2">
         <v>2030</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>94</v>
+      <c r="R8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.01</v>
       </c>
       <c r="U8" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V8" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2">
         <v>30</v>
@@ -15277,85 +15294,82 @@
       <c r="Z8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AA8" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AB8" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AB8" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AF8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AG8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AH8" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AI8" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AJ8" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AK8" s="2" t="s">
+      <c r="AK8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AL8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AM8" s="2" t="s">
+      <c r="AM8" s="19" t="s">
         <v>94</v>
       </c>
       <c r="AN8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO8" s="2">
-        <f>'180 Lithium Ion Battery'!E26*1000</f>
-        <v>170.14399999999998</v>
-      </c>
-      <c r="AP8" s="2">
-        <f>'180 Lithium Ion Battery'!F26*1000</f>
-        <v>106.33999999999999</v>
-      </c>
-      <c r="AQ8" s="2">
-        <f>'180 Lithium Ion Battery'!G26*1000</f>
-        <v>63.803999999999988</v>
-      </c>
-      <c r="AR8" s="17">
-        <f>'180 Lithium Ion Battery'!E28</f>
-        <v>0.57423599999999997</v>
-      </c>
-      <c r="AS8" s="17">
-        <f>'180 Lithium Ion Battery'!F28</f>
-        <v>0.57423599999999997</v>
-      </c>
-      <c r="AT8" s="17">
-        <f>'180 Lithium Ion Battery'!G28</f>
-        <v>0.57423599999999997</v>
-      </c>
-      <c r="AU8" s="2" t="s">
+      <c r="AO8" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AP8" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ8" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AR8" s="19">
+        <f>'151a Hydrogen Storage - Tanks'!E28/1000</f>
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="AS8" s="19">
+        <f>'151a Hydrogen Storage - Tanks'!F28/1000</f>
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="AT8" s="19">
+        <f>'151a Hydrogen Storage - Tanks'!G28/1000</f>
+        <v>0.42535999999999996</v>
+      </c>
+      <c r="AU8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AV8" s="2" t="s">
+      <c r="AV8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AW8" s="2" t="s">
+      <c r="AW8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="BC8" s="2">
+      <c r="BC8" s="16">
         <v>1</v>
       </c>
-      <c r="BD8" s="2">
+      <c r="BD8" s="16">
         <v>1</v>
       </c>
     </row>
@@ -15364,10 +15378,10 @@
         <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>110</v>
+        <v>393</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>111</v>
+        <v>397</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>104</v>
@@ -15381,20 +15395,20 @@
       <c r="I9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>111</v>
+      <c r="K9" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>378</v>
+        <v>450</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>112</v>
+      <c r="O9" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="P9" s="2">
         <v>31.536000000000001</v>
@@ -15412,52 +15426,22 @@
         <v>0.01</v>
       </c>
       <c r="U9" s="2">
+        <v>20</v>
+      </c>
+      <c r="V9" s="2">
+        <v>20</v>
+      </c>
+      <c r="W9" s="2">
         <v>25</v>
       </c>
-      <c r="V9" s="2">
-        <v>30</v>
-      </c>
-      <c r="W9" s="2">
-        <v>30</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA9" s="17" t="s">
-        <v>94</v>
-      </c>
       <c r="AB9" s="18">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="AC9" s="18">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="AD9" s="18">
-        <v>0.88</v>
-      </c>
-      <c r="AE9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH9" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI9" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ9" s="20" t="s">
-        <v>94</v>
+        <v>0.95</v>
       </c>
       <c r="AK9" s="19" t="s">
         <v>94</v>
@@ -15468,9 +15452,6 @@
       <c r="AM9" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AN9" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="AO9" s="19">
         <v>1E-4</v>
       </c>
@@ -15489,29 +15470,19 @@
       <c r="AT9" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AU9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC9" s="16">
+      <c r="BC9" s="2">
         <v>0</v>
       </c>
-      <c r="BD9" s="16"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>394</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>114</v>
+        <v>396</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>104</v>
@@ -15525,20 +15496,20 @@
       <c r="I10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>112</v>
+      <c r="K10" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>115</v>
+      <c r="O10" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
@@ -15546,35 +15517,14 @@
       <c r="Q10" s="2">
         <v>2030</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="U10" s="2">
+        <v>20</v>
+      </c>
+      <c r="V10" s="2">
+        <v>20</v>
+      </c>
+      <c r="W10" s="2">
         <v>25</v>
-      </c>
-      <c r="V10" s="2">
-        <v>30</v>
-      </c>
-      <c r="W10" s="2">
-        <v>30</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA10" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="AB10" s="18" t="s">
         <v>94</v>
@@ -15585,24 +15535,6 @@
       <c r="AD10" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AE10" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF10" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG10" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH10" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI10" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ10" s="20" t="s">
-        <v>94</v>
-      </c>
       <c r="AK10" s="19">
         <v>-3.65</v>
       </c>
@@ -15612,20 +15544,17 @@
       <c r="AM10" s="19">
         <v>-3.65</v>
       </c>
-      <c r="AN10" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="AO10" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!E24/0.0000036</f>
-        <v>13265.914999999999</v>
+        <f>'Ammonia storage'!$R$11</f>
+        <v>393.70078740157487</v>
       </c>
       <c r="AP10" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!F24/0.0000036</f>
-        <v>7990.3876000000009</v>
+        <f>'Ammonia storage'!$R$11</f>
+        <v>393.70078740157487</v>
       </c>
       <c r="AQ10" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!G24/0.0000036</f>
-        <v>6203.1666666666661</v>
+        <f>'Ammonia storage'!$R$11</f>
+        <v>393.70078740157487</v>
       </c>
       <c r="AR10" s="19" t="s">
         <v>94</v>
@@ -15636,14 +15565,17 @@
       <c r="AT10" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AU10" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV10" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW10" s="19" t="s">
-        <v>94</v>
+      <c r="AU10" s="2">
+        <f>0.05*AO10</f>
+        <v>19.685039370078744</v>
+      </c>
+      <c r="AV10" s="2">
+        <f t="shared" ref="AV10:AW10" si="0">0.05*AP10</f>
+        <v>19.685039370078744</v>
+      </c>
+      <c r="AW10" s="2">
+        <f t="shared" si="0"/>
+        <v>19.685039370078744</v>
       </c>
       <c r="AX10" s="2">
         <v>0.5</v>
@@ -15654,20 +15586,19 @@
       <c r="AZ10" s="2">
         <v>0.4</v>
       </c>
-      <c r="BC10" s="16">
+      <c r="BC10" s="2">
         <v>0</v>
       </c>
-      <c r="BD10" s="16"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>116</v>
+        <v>395</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>117</v>
+        <v>398</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>104</v>
@@ -15681,20 +15612,20 @@
       <c r="I11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>115</v>
+      <c r="K11" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>378</v>
+        <v>450</v>
       </c>
       <c r="P11" s="2">
         <v>31.536000000000001</v>
@@ -15712,52 +15643,22 @@
         <v>0.01</v>
       </c>
       <c r="U11" s="2">
+        <v>20</v>
+      </c>
+      <c r="V11" s="2">
+        <v>20</v>
+      </c>
+      <c r="W11" s="2">
         <v>25</v>
       </c>
-      <c r="V11" s="2">
-        <v>30</v>
-      </c>
-      <c r="W11" s="2">
-        <v>30</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA11" s="17" t="s">
-        <v>94</v>
-      </c>
       <c r="AB11" s="18">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC11" s="18">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AD11" s="18">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH11" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI11" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ11" s="20" t="s">
-        <v>94</v>
+        <v>0.95</v>
       </c>
       <c r="AK11" s="19" t="s">
         <v>94</v>
@@ -15768,9 +15669,6 @@
       <c r="AM11" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AN11" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="AO11" s="19">
         <v>1E-4</v>
       </c>
@@ -15780,31 +15678,13 @@
       <c r="AQ11" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AR11" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!E28/1000</f>
-        <v>0.53169999999999995</v>
-      </c>
-      <c r="AS11" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!F28/1000</f>
-        <v>0.53169999999999995</v>
-      </c>
-      <c r="AT11" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!G28/1000</f>
-        <v>0.42535999999999996</v>
-      </c>
-      <c r="AU11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC11" s="16">
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="BC11" s="2">
         <v>1</v>
       </c>
-      <c r="BD11" s="16">
+      <c r="BD11" s="2">
         <v>1</v>
       </c>
     </row>
@@ -15813,10 +15693,10 @@
         <v>109</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>104</v>
@@ -15831,19 +15711,19 @@
         <v>79</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="P12" s="2">
         <v>31.536000000000001</v>
@@ -15896,28 +15776,23 @@
       <c r="AQ12" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AR12" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS12" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT12" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC12" s="2">
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="BC12" s="16">
         <v>0</v>
       </c>
+      <c r="BD12" s="16"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>104</v>
@@ -15932,19 +15807,19 @@
         <v>79</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>94</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
@@ -15980,37 +15855,31 @@
         <v>-3.65</v>
       </c>
       <c r="AO13" s="19">
-        <f>'Ammonia storage'!$R$11</f>
-        <v>393.70078740157487</v>
+        <f>'Metanol storage'!$T$12</f>
+        <v>253.16455696202533</v>
       </c>
       <c r="AP13" s="19">
-        <f>'Ammonia storage'!$R$11</f>
-        <v>393.70078740157487</v>
+        <f>'Metanol storage'!$T$12</f>
+        <v>253.16455696202533</v>
       </c>
       <c r="AQ13" s="19">
-        <f>'Ammonia storage'!$R$11</f>
-        <v>393.70078740157487</v>
-      </c>
-      <c r="AR13" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS13" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT13" s="19" t="s">
-        <v>94</v>
-      </c>
+        <f>'Metanol storage'!$T$12</f>
+        <v>253.16455696202533</v>
+      </c>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="19"/>
       <c r="AU13" s="2">
         <f>0.05*AO13</f>
-        <v>19.685039370078744</v>
+        <v>12.658227848101268</v>
       </c>
       <c r="AV13" s="2">
-        <f t="shared" ref="AV13:AW13" si="0">0.05*AP13</f>
-        <v>19.685039370078744</v>
+        <f t="shared" ref="AV13:AW13" si="1">0.05*AP13</f>
+        <v>12.658227848101268</v>
       </c>
       <c r="AW13" s="2">
-        <f t="shared" si="0"/>
-        <v>19.685039370078744</v>
+        <f t="shared" si="1"/>
+        <v>12.658227848101268</v>
       </c>
       <c r="AX13" s="2">
         <v>0.5</v>
@@ -16021,19 +15890,20 @@
       <c r="AZ13" s="2">
         <v>0.4</v>
       </c>
-      <c r="BC13" s="2">
+      <c r="BC13" s="16">
         <v>0</v>
       </c>
+      <c r="BD13" s="16"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>104</v>
@@ -16048,19 +15918,19 @@
         <v>79</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P14" s="2">
         <v>31.536000000000001</v>
@@ -16116,10 +15986,10 @@
       <c r="AR14" s="19"/>
       <c r="AS14" s="19"/>
       <c r="AT14" s="19"/>
-      <c r="BC14" s="2">
+      <c r="BC14" s="16">
         <v>1</v>
       </c>
-      <c r="BD14" s="2">
+      <c r="BD14" s="16">
         <v>1</v>
       </c>
     </row>
@@ -16128,10 +15998,10 @@
         <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>104</v>
@@ -16146,19 +16016,19 @@
         <v>79</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="P15" s="2">
         <v>31.536000000000001</v>
@@ -16214,20 +16084,19 @@
       <c r="AR15" s="19"/>
       <c r="AS15" s="19"/>
       <c r="AT15" s="19"/>
-      <c r="BC15" s="16">
+      <c r="BC15" s="2">
         <v>0</v>
       </c>
-      <c r="BD15" s="16"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>104</v>
@@ -16242,19 +16111,19 @@
         <v>79</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>94</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="P16" s="2">
         <v>1</v>
@@ -16290,31 +16159,31 @@
         <v>-3.65</v>
       </c>
       <c r="AO16" s="19">
-        <f>'Metanol storage'!$T$12</f>
-        <v>253.16455696202533</v>
+        <f>'JETFUEL storage'!$Q$11</f>
+        <v>193.70835270416862</v>
       </c>
       <c r="AP16" s="19">
-        <f>'Metanol storage'!$T$12</f>
-        <v>253.16455696202533</v>
+        <f>'JETFUEL storage'!$Q$11</f>
+        <v>193.70835270416862</v>
       </c>
       <c r="AQ16" s="19">
-        <f>'Metanol storage'!$T$12</f>
-        <v>253.16455696202533</v>
+        <f>'JETFUEL storage'!$Q$11</f>
+        <v>193.70835270416862</v>
       </c>
       <c r="AR16" s="19"/>
       <c r="AS16" s="19"/>
       <c r="AT16" s="19"/>
       <c r="AU16" s="2">
         <f>0.05*AO16</f>
-        <v>12.658227848101268</v>
+        <v>9.6854176352084309</v>
       </c>
       <c r="AV16" s="2">
-        <f t="shared" ref="AV16:AW16" si="1">0.05*AP16</f>
-        <v>12.658227848101268</v>
+        <f t="shared" ref="AV16" si="2">0.05*AP16</f>
+        <v>9.6854176352084309</v>
       </c>
       <c r="AW16" s="2">
-        <f t="shared" si="1"/>
-        <v>12.658227848101268</v>
+        <f t="shared" ref="AW16" si="3">0.05*AQ16</f>
+        <v>9.6854176352084309</v>
       </c>
       <c r="AX16" s="2">
         <v>0.5</v>
@@ -16325,20 +16194,19 @@
       <c r="AZ16" s="2">
         <v>0.4</v>
       </c>
-      <c r="BC16" s="16">
+      <c r="BC16" s="2">
         <v>0</v>
       </c>
-      <c r="BD16" s="16"/>
     </row>
     <row r="17" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>104</v>
@@ -16353,19 +16221,19 @@
         <v>79</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P17" s="2">
         <v>31.536000000000001</v>
@@ -16421,10 +16289,10 @@
       <c r="AR17" s="19"/>
       <c r="AS17" s="19"/>
       <c r="AT17" s="19"/>
-      <c r="BC17" s="16">
+      <c r="BC17" s="2">
         <v>1</v>
       </c>
-      <c r="BD17" s="16">
+      <c r="BD17" s="2">
         <v>1</v>
       </c>
     </row>
@@ -16433,16 +16301,16 @@
         <v>109</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>104</v>
+        <v>417</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>105</v>
+        <v>424</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>80</v>
@@ -16451,22 +16319,22 @@
         <v>79</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="P18" s="2">
-        <v>31.536000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
         <v>2030</v>
@@ -16519,25 +16387,26 @@
       <c r="AR18" s="19"/>
       <c r="AS18" s="19"/>
       <c r="AT18" s="19"/>
-      <c r="BC18" s="2">
+      <c r="BC18" s="16">
         <v>0</v>
       </c>
+      <c r="BD18" s="16"/>
     </row>
     <row r="19" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>104</v>
+        <v>417</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>118</v>
+        <v>424</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>80</v>
@@ -16546,19 +16415,16 @@
         <v>79</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>94</v>
+        <v>415</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="P19" s="2">
         <v>1</v>
@@ -16594,31 +16460,31 @@
         <v>-3.65</v>
       </c>
       <c r="AO19" s="19">
-        <f>'JETFUEL storage'!$Q$11</f>
-        <v>193.70835270416862</v>
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
       </c>
       <c r="AP19" s="19">
-        <f>'JETFUEL storage'!$Q$11</f>
-        <v>193.70835270416862</v>
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
       </c>
       <c r="AQ19" s="19">
-        <f>'JETFUEL storage'!$Q$11</f>
-        <v>193.70835270416862</v>
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
       </c>
       <c r="AR19" s="19"/>
       <c r="AS19" s="19"/>
       <c r="AT19" s="19"/>
       <c r="AU19" s="2">
         <f>0.05*AO19</f>
-        <v>9.6854176352084309</v>
+        <v>5.3571428571428577</v>
       </c>
       <c r="AV19" s="2">
-        <f t="shared" ref="AV19" si="2">0.05*AP19</f>
-        <v>9.6854176352084309</v>
+        <f t="shared" ref="AV19" si="4">0.05*AP19</f>
+        <v>5.3571428571428577</v>
       </c>
       <c r="AW19" s="2">
-        <f t="shared" ref="AW19" si="3">0.05*AQ19</f>
-        <v>9.6854176352084309</v>
+        <f t="shared" ref="AW19" si="5">0.05*AQ19</f>
+        <v>5.3571428571428577</v>
       </c>
       <c r="AX19" s="2">
         <v>0.5</v>
@@ -16629,25 +16495,26 @@
       <c r="AZ19" s="2">
         <v>0.4</v>
       </c>
-      <c r="BC19" s="2">
+      <c r="BC19" s="16">
         <v>0</v>
       </c>
+      <c r="BD19" s="16"/>
     </row>
     <row r="20" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>104</v>
+        <v>417</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>105</v>
+        <v>424</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>80</v>
@@ -16656,22 +16523,22 @@
         <v>79</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>103</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P20" s="2">
-        <v>31.536000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
         <v>2030</v>
@@ -16724,312 +16591,445 @@
       <c r="AR20" s="19"/>
       <c r="AS20" s="19"/>
       <c r="AT20" s="19"/>
-      <c r="BC20" s="2">
+      <c r="BC20" s="16">
         <v>1</v>
       </c>
-      <c r="BD20" s="2">
+      <c r="BD20" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="G21" s="2" t="s">
+    <row r="31" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="N21" s="2" t="s">
+      <c r="K31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="P21" s="2">
+      <c r="N31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" s="2">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U31" s="2">
+        <v>20</v>
+      </c>
+      <c r="V31" s="2">
+        <v>25</v>
+      </c>
+      <c r="W31" s="2">
+        <v>30</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AR31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P32" s="2">
         <v>1</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q32" s="2">
         <v>2030</v>
       </c>
-      <c r="R21" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="U21" s="2">
+      <c r="R32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U32" s="2">
         <v>20</v>
       </c>
-      <c r="V21" s="2">
+      <c r="V32" s="2">
+        <v>25</v>
+      </c>
+      <c r="W32" s="2">
+        <v>30</v>
+      </c>
+      <c r="X32" s="2">
+        <v>14000</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>30000</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK32" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AL32" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AN32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO32" s="2">
+        <f>('180 Lithium Ion Battery'!E25+'180 Lithium Ion Battery'!E27)/0.0000036</f>
+        <v>41945.222222222219</v>
+      </c>
+      <c r="AP32" s="2">
+        <f>('180 Lithium Ion Battery'!F25+'180 Lithium Ion Battery'!F27)/0.0000036</f>
+        <v>27766.555555555551</v>
+      </c>
+      <c r="AQ32" s="2">
+        <f>('180 Lithium Ion Battery'!G25+'180 Lithium Ion Battery'!G27)/0.0000036</f>
+        <v>22154.166666666664</v>
+      </c>
+      <c r="AU32" s="2">
+        <f>'180 Lithium Ion Battery'!E29/(1000000*0.0000036)</f>
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="AV32" s="2">
+        <f>'180 Lithium Ion Battery'!F29/(1000000*0.0000036)</f>
+        <v>0.50216111111111106</v>
+      </c>
+      <c r="AW32" s="2">
+        <f>'180 Lithium Ion Battery'!G29/(1000000*0.0000036)</f>
+        <v>0.47262222222222222</v>
+      </c>
+      <c r="AX32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AY32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AZ32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="BC32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P33" s="2">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U33" s="2">
         <v>20</v>
       </c>
-      <c r="W21" s="2">
+      <c r="V33" s="2">
         <v>25</v>
       </c>
-      <c r="AB21" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AC21" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AD21" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AK21" s="19" t="s">
+      <c r="W33" s="2">
+        <v>30</v>
+      </c>
+      <c r="X33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AL21" s="19" t="s">
+      <c r="Y33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AM21" s="19" t="s">
+      <c r="Z33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO21" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AP21" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ21" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AR21" s="19"/>
-      <c r="AS21" s="19"/>
-      <c r="AT21" s="19"/>
-      <c r="BC21" s="16">
-        <v>0</v>
-      </c>
-      <c r="BD21" s="16"/>
-    </row>
-    <row r="22" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="P22" s="2">
+      <c r="AA33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO33" s="2">
+        <f>'180 Lithium Ion Battery'!E26*1000</f>
+        <v>170.14399999999998</v>
+      </c>
+      <c r="AP33" s="2">
+        <f>'180 Lithium Ion Battery'!F26*1000</f>
+        <v>106.33999999999999</v>
+      </c>
+      <c r="AQ33" s="2">
+        <f>'180 Lithium Ion Battery'!G26*1000</f>
+        <v>63.803999999999988</v>
+      </c>
+      <c r="AR33" s="17">
+        <f>'180 Lithium Ion Battery'!E28</f>
+        <v>0.57423599999999997</v>
+      </c>
+      <c r="AS33" s="17">
+        <f>'180 Lithium Ion Battery'!F28</f>
+        <v>0.57423599999999997</v>
+      </c>
+      <c r="AT33" s="17">
+        <f>'180 Lithium Ion Battery'!G28</f>
+        <v>0.57423599999999997</v>
+      </c>
+      <c r="AU33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC33" s="2">
         <v>1</v>
       </c>
-      <c r="Q22" s="2">
-        <v>2030</v>
-      </c>
-      <c r="U22" s="2">
-        <v>20</v>
-      </c>
-      <c r="V22" s="2">
-        <v>20</v>
-      </c>
-      <c r="W22" s="2">
-        <v>25</v>
-      </c>
-      <c r="AB22" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC22" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD22" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK22" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AL22" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AM22" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AO22" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
-      </c>
-      <c r="AP22" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
-      </c>
-      <c r="AQ22" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
-      </c>
-      <c r="AR22" s="19"/>
-      <c r="AS22" s="19"/>
-      <c r="AT22" s="19"/>
-      <c r="AU22" s="2">
-        <f>0.05*AO22</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AV22" s="2">
-        <f t="shared" ref="AV22" si="4">0.05*AP22</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AW22" s="2">
-        <f t="shared" ref="AW22" si="5">0.05*AQ22</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AX22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AY22" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AZ22" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="BC22" s="16">
-        <v>0</v>
-      </c>
-      <c r="BD22" s="16"/>
-    </row>
-    <row r="23" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="P23" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>2030</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="U23" s="2">
-        <v>20</v>
-      </c>
-      <c r="V23" s="2">
-        <v>20</v>
-      </c>
-      <c r="W23" s="2">
-        <v>25</v>
-      </c>
-      <c r="AB23" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AC23" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AD23" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AK23" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL23" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM23" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO23" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AP23" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ23" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AR23" s="19"/>
-      <c r="AS23" s="19"/>
-      <c r="AT23" s="19"/>
-      <c r="BC23" s="16">
-        <v>1</v>
-      </c>
-      <c r="BD23" s="16">
+      <c r="BD33" s="2">
         <v>1</v>
       </c>
     </row>

--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C32336-45B0-4613-8726-23E68725DFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595D68A5-F5B2-4A78-A85B-3177811D0B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="454">
   <si>
     <t>TechName</t>
   </si>
@@ -14378,10 +14378,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:BE33"/>
+  <dimension ref="A2:BE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14955,9 +14955,6 @@
       <c r="M6" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="O6" s="2" t="s">
         <v>112</v>
       </c>
@@ -15099,9 +15096,6 @@
       <c r="M7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>115</v>
       </c>
@@ -15255,9 +15249,6 @@
       <c r="M8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="O8" s="2" t="s">
         <v>378</v>
       </c>
@@ -15404,9 +15395,6 @@
       <c r="M9" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="O9" s="1" t="s">
         <v>391</v>
       </c>
@@ -15505,9 +15493,6 @@
       <c r="M10" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="O10" s="1" t="s">
         <v>392</v>
       </c>
@@ -15620,9 +15605,6 @@
       </c>
       <c r="M11" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>450</v>
@@ -15719,9 +15701,6 @@
       <c r="M12" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="O12" s="1" t="s">
         <v>399</v>
       </c>
@@ -15814,9 +15793,6 @@
       </c>
       <c r="M13" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>400</v>
@@ -15926,9 +15902,6 @@
       <c r="M14" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="O14" s="2" t="s">
         <v>452</v>
       </c>
@@ -16024,9 +15997,6 @@
       <c r="M15" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="O15" s="1" t="s">
         <v>407</v>
       </c>
@@ -16118,9 +16088,6 @@
       </c>
       <c r="M16" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>408</v>
@@ -16229,9 +16196,6 @@
       <c r="M17" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="O17" s="2" t="s">
         <v>453</v>
       </c>
@@ -16326,9 +16290,6 @@
       </c>
       <c r="M18" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>415</v>
@@ -16531,9 +16492,6 @@
       <c r="M20" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="O20" s="2" t="s">
         <v>451</v>
       </c>
@@ -16598,6 +16556,36 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N25" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N26" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N27" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N28" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N29" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N30" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="31" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>78</v>
@@ -16630,7 +16618,7 @@
         <v>103</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>97</v>
@@ -16913,7 +16901,7 @@
         <v>100</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>103</v>
@@ -17031,6 +17019,31 @@
       </c>
       <c r="BD33" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N34" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N35" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N36" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N37" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N39" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595D68A5-F5B2-4A78-A85B-3177811D0B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF572AD-A11A-4258-BB31-1B65C0870873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14378,10 +14378,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:BE39"/>
+  <dimension ref="A2:BE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14964,15 +14964,6 @@
       <c r="Q6" s="2">
         <v>2030</v>
       </c>
-      <c r="R6" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0.01</v>
-      </c>
       <c r="U6" s="2">
         <v>25</v>
       </c>
@@ -15087,135 +15078,43 @@
       <c r="I7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>2030</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U7" s="2">
-        <v>25</v>
-      </c>
-      <c r="V7" s="2">
-        <v>30</v>
-      </c>
-      <c r="W7" s="2">
-        <v>30</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA7" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB7" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC7" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD7" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH7" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI7" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ7" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK7" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AL7" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AM7" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AN7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO7" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!E24/0.0000036</f>
-        <v>13265.914999999999</v>
-      </c>
-      <c r="AP7" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!F24/0.0000036</f>
-        <v>7990.3876000000009</v>
-      </c>
-      <c r="AQ7" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!G24/0.0000036</f>
-        <v>6203.1666666666661</v>
-      </c>
-      <c r="AR7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW7" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AY7" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AZ7" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="BC7" s="16">
-        <v>0</v>
-      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="N7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="19"/>
+      <c r="BC7" s="16"/>
       <c r="BD7" s="16"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
@@ -15241,31 +15140,31 @@
         <v>79</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="P8" s="2">
-        <v>31.536000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>2030</v>
       </c>
-      <c r="R8" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0.01</v>
+      <c r="R8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="U8" s="2">
         <v>25</v>
@@ -15288,14 +15187,14 @@
       <c r="AA8" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AB8" s="18">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="18">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="18">
-        <v>1</v>
+      <c r="AB8" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC8" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD8" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="AE8" s="19" t="s">
         <v>94</v>
@@ -15315,38 +15214,38 @@
       <c r="AJ8" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AK8" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL8" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM8" s="19" t="s">
-        <v>94</v>
+      <c r="AK8" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AL8" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AM8" s="19">
+        <v>-3.65</v>
       </c>
       <c r="AN8" s="2" t="s">
         <v>94</v>
       </c>
       <c r="AO8" s="19">
-        <v>1E-4</v>
+        <f>'151a Hydrogen Storage - Tanks'!E24/0.0000036</f>
+        <v>13265.914999999999</v>
       </c>
       <c r="AP8" s="19">
-        <v>1E-4</v>
+        <f>'151a Hydrogen Storage - Tanks'!F24/0.0000036</f>
+        <v>7990.3876000000009</v>
       </c>
       <c r="AQ8" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AR8" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!E28/1000</f>
-        <v>0.53169999999999995</v>
-      </c>
-      <c r="AS8" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!F28/1000</f>
-        <v>0.53169999999999995</v>
-      </c>
-      <c r="AT8" s="19">
-        <f>'151a Hydrogen Storage - Tanks'!G28/1000</f>
-        <v>0.42535999999999996</v>
+        <f>'151a Hydrogen Storage - Tanks'!G24/0.0000036</f>
+        <v>6203.1666666666661</v>
+      </c>
+      <c r="AR8" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS8" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT8" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="AU8" s="19" t="s">
         <v>94</v>
@@ -15357,12 +15256,19 @@
       <c r="AW8" s="19" t="s">
         <v>94</v>
       </c>
+      <c r="AX8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>0.4</v>
+      </c>
       <c r="BC8" s="16">
-        <v>1</v>
-      </c>
-      <c r="BD8" s="16">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BD8" s="16"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -15386,17 +15292,17 @@
       <c r="I9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>397</v>
+      <c r="K9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>391</v>
+        <v>115</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="P9" s="2">
         <v>31.536000000000001</v>
@@ -15404,32 +15310,53 @@
       <c r="Q9" s="2">
         <v>2030</v>
       </c>
-      <c r="R9" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0.01</v>
-      </c>
       <c r="U9" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V9" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA9" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="AB9" s="18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="18">
-        <v>0.95</v>
+        <v>1</v>
+      </c>
+      <c r="AE9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH9" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI9" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ9" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="AK9" s="19" t="s">
         <v>94</v>
@@ -15440,6 +15367,9 @@
       <c r="AM9" s="19" t="s">
         <v>94</v>
       </c>
+      <c r="AN9" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="AO9" s="19">
         <v>1E-4</v>
       </c>
@@ -15449,17 +15379,32 @@
       <c r="AQ9" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AR9" s="19" t="s">
+      <c r="AR9" s="19">
+        <f>'151a Hydrogen Storage - Tanks'!E28/1000</f>
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="AS9" s="19">
+        <f>'151a Hydrogen Storage - Tanks'!F28/1000</f>
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="AT9" s="19">
+        <f>'151a Hydrogen Storage - Tanks'!G28/1000</f>
+        <v>0.42535999999999996</v>
+      </c>
+      <c r="AU9" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AS9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AW9" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="BC9" s="2">
-        <v>0</v>
+      <c r="BC9" s="16">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
@@ -15484,96 +15429,44 @@
       <c r="I10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>2030</v>
-      </c>
-      <c r="U10" s="2">
-        <v>20</v>
-      </c>
-      <c r="V10" s="2">
-        <v>20</v>
-      </c>
-      <c r="W10" s="2">
-        <v>25</v>
-      </c>
-      <c r="AB10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK10" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AL10" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AM10" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AO10" s="19">
-        <f>'Ammonia storage'!$R$11</f>
-        <v>393.70078740157487</v>
-      </c>
-      <c r="AP10" s="19">
-        <f>'Ammonia storage'!$R$11</f>
-        <v>393.70078740157487</v>
-      </c>
-      <c r="AQ10" s="19">
-        <f>'Ammonia storage'!$R$11</f>
-        <v>393.70078740157487</v>
-      </c>
-      <c r="AR10" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS10" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT10" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU10" s="2">
-        <f>0.05*AO10</f>
-        <v>19.685039370078744</v>
-      </c>
-      <c r="AV10" s="2">
-        <f t="shared" ref="AV10:AW10" si="0">0.05*AP10</f>
-        <v>19.685039370078744</v>
-      </c>
-      <c r="AW10" s="2">
-        <f t="shared" si="0"/>
-        <v>19.685039370078744</v>
-      </c>
-      <c r="AX10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AY10" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AZ10" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="BC10" s="2">
-        <v>0</v>
-      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="N10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
@@ -15598,16 +15491,16 @@
         <v>79</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="O11" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>450</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="P11" s="2">
         <v>31.536000000000001</v>
@@ -15615,15 +15508,6 @@
       <c r="Q11" s="2">
         <v>2030</v>
       </c>
-      <c r="R11" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0.01</v>
-      </c>
       <c r="U11" s="2">
         <v>20</v>
       </c>
@@ -15660,14 +15544,17 @@
       <c r="AQ11" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AR11" s="19"/>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="19"/>
+      <c r="AR11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT11" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="BC11" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.25">
@@ -15692,24 +15579,10 @@
       <c r="I12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="P12" s="2">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>2030</v>
-      </c>
+      <c r="N12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="1"/>
       <c r="R12" s="2">
         <v>0.01</v>
       </c>
@@ -15719,49 +15592,18 @@
       <c r="T12" s="2">
         <v>0.01</v>
       </c>
-      <c r="U12" s="2">
-        <v>20</v>
-      </c>
-      <c r="V12" s="2">
-        <v>20</v>
-      </c>
-      <c r="W12" s="2">
-        <v>25</v>
-      </c>
-      <c r="AB12" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AC12" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AD12" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AK12" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL12" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM12" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO12" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AP12" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ12" s="19">
-        <v>1E-4</v>
-      </c>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
       <c r="AR12" s="19"/>
       <c r="AS12" s="19"/>
       <c r="AT12" s="19"/>
-      <c r="BC12" s="16">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="16"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
@@ -15786,16 +15628,16 @@
         <v>79</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
@@ -15831,31 +15673,37 @@
         <v>-3.65</v>
       </c>
       <c r="AO13" s="19">
-        <f>'Metanol storage'!$T$12</f>
-        <v>253.16455696202533</v>
+        <f>'Ammonia storage'!$R$11</f>
+        <v>393.70078740157487</v>
       </c>
       <c r="AP13" s="19">
-        <f>'Metanol storage'!$T$12</f>
-        <v>253.16455696202533</v>
+        <f>'Ammonia storage'!$R$11</f>
+        <v>393.70078740157487</v>
       </c>
       <c r="AQ13" s="19">
-        <f>'Metanol storage'!$T$12</f>
-        <v>253.16455696202533</v>
-      </c>
-      <c r="AR13" s="19"/>
-      <c r="AS13" s="19"/>
-      <c r="AT13" s="19"/>
+        <f>'Ammonia storage'!$R$11</f>
+        <v>393.70078740157487</v>
+      </c>
+      <c r="AR13" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS13" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT13" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="AU13" s="2">
         <f>0.05*AO13</f>
-        <v>12.658227848101268</v>
+        <v>19.685039370078744</v>
       </c>
       <c r="AV13" s="2">
-        <f t="shared" ref="AV13:AW13" si="1">0.05*AP13</f>
-        <v>12.658227848101268</v>
+        <f t="shared" ref="AV13:AW13" si="0">0.05*AP13</f>
+        <v>19.685039370078744</v>
       </c>
       <c r="AW13" s="2">
-        <f t="shared" si="1"/>
-        <v>12.658227848101268</v>
+        <f t="shared" si="0"/>
+        <v>19.685039370078744</v>
       </c>
       <c r="AX13" s="2">
         <v>0.5</v>
@@ -15866,10 +15714,9 @@
       <c r="AZ13" s="2">
         <v>0.4</v>
       </c>
-      <c r="BC13" s="16">
+      <c r="BC13" s="2">
         <v>0</v>
       </c>
-      <c r="BD13" s="16"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -15894,31 +15741,22 @@
         <v>79</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="P14" s="2">
         <v>31.536000000000001</v>
       </c>
       <c r="Q14" s="2">
         <v>2030</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0.01</v>
       </c>
       <c r="U14" s="2">
         <v>20</v>
@@ -15959,10 +15797,10 @@
       <c r="AR14" s="19"/>
       <c r="AS14" s="19"/>
       <c r="AT14" s="19"/>
-      <c r="BC14" s="16">
+      <c r="BC14" s="2">
         <v>1</v>
       </c>
-      <c r="BD14" s="16">
+      <c r="BD14" s="2">
         <v>1</v>
       </c>
     </row>
@@ -15988,23 +15826,9 @@
       <c r="I15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="P15" s="2">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>2030</v>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="R15" s="2">
         <v>0.01</v>
@@ -16015,48 +15839,18 @@
       <c r="T15" s="2">
         <v>0.01</v>
       </c>
-      <c r="U15" s="2">
-        <v>20</v>
-      </c>
-      <c r="V15" s="2">
-        <v>20</v>
-      </c>
-      <c r="W15" s="2">
-        <v>25</v>
-      </c>
-      <c r="AB15" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AC15" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AD15" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AK15" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL15" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM15" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO15" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AP15" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ15" s="19">
-        <v>1E-4</v>
-      </c>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
       <c r="AR15" s="19"/>
       <c r="AS15" s="19"/>
       <c r="AT15" s="19"/>
-      <c r="BC15" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -16081,19 +15875,19 @@
         <v>79</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
+        <v>31.536000000000001</v>
       </c>
       <c r="Q16" s="2">
         <v>2030</v>
@@ -16107,63 +15901,40 @@
       <c r="W16" s="2">
         <v>25</v>
       </c>
-      <c r="AB16" s="18" t="s">
+      <c r="AB16" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AC16" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AD16" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AK16" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AC16" s="18" t="s">
+      <c r="AL16" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AD16" s="18" t="s">
+      <c r="AM16" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AK16" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AL16" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AM16" s="19">
-        <v>-3.65</v>
-      </c>
       <c r="AO16" s="19">
-        <f>'JETFUEL storage'!$Q$11</f>
-        <v>193.70835270416862</v>
+        <v>1E-4</v>
       </c>
       <c r="AP16" s="19">
-        <f>'JETFUEL storage'!$Q$11</f>
-        <v>193.70835270416862</v>
+        <v>1E-4</v>
       </c>
       <c r="AQ16" s="19">
-        <f>'JETFUEL storage'!$Q$11</f>
-        <v>193.70835270416862</v>
+        <v>1E-4</v>
       </c>
       <c r="AR16" s="19"/>
       <c r="AS16" s="19"/>
       <c r="AT16" s="19"/>
-      <c r="AU16" s="2">
-        <f>0.05*AO16</f>
-        <v>9.6854176352084309</v>
-      </c>
-      <c r="AV16" s="2">
-        <f t="shared" ref="AV16" si="2">0.05*AP16</f>
-        <v>9.6854176352084309</v>
-      </c>
-      <c r="AW16" s="2">
-        <f t="shared" ref="AW16" si="3">0.05*AQ16</f>
-        <v>9.6854176352084309</v>
-      </c>
-      <c r="AX16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AY16" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AZ16" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="BC16" s="2">
+      <c r="BC16" s="16">
         <v>0</v>
       </c>
+      <c r="BD16" s="16"/>
     </row>
     <row r="17" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -16187,24 +15958,10 @@
       <c r="I17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="P17" s="2">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>2030</v>
-      </c>
+      <c r="N17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" s="1"/>
       <c r="R17" s="2">
         <v>0.01</v>
       </c>
@@ -16214,51 +15971,20 @@
       <c r="T17" s="2">
         <v>0.01</v>
       </c>
-      <c r="U17" s="2">
-        <v>20</v>
-      </c>
-      <c r="V17" s="2">
-        <v>20</v>
-      </c>
-      <c r="W17" s="2">
-        <v>25</v>
-      </c>
-      <c r="AB17" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AC17" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AD17" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AK17" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL17" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM17" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO17" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AP17" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ17" s="19">
-        <v>1E-4</v>
-      </c>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
       <c r="AR17" s="19"/>
       <c r="AS17" s="19"/>
       <c r="AT17" s="19"/>
-      <c r="BC17" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD17" s="2">
-        <v>1</v>
-      </c>
+      <c r="BC17" s="16"/>
+      <c r="BD17" s="16"/>
     </row>
     <row r="18" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
@@ -16283,16 +16009,16 @@
         <v>79</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>451</v>
+        <v>405</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="P18" s="2">
         <v>1</v>
@@ -16300,15 +16026,6 @@
       <c r="Q18" s="2">
         <v>2030</v>
       </c>
-      <c r="R18" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0.01</v>
-      </c>
       <c r="U18" s="2">
         <v>20</v>
       </c>
@@ -16318,36 +16035,60 @@
       <c r="W18" s="2">
         <v>25</v>
       </c>
-      <c r="AB18" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AC18" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AD18" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AK18" s="19" t="s">
+      <c r="AB18" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AL18" s="19" t="s">
+      <c r="AC18" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AM18" s="19" t="s">
+      <c r="AD18" s="18" t="s">
         <v>94</v>
       </c>
+      <c r="AK18" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AL18" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AM18" s="19">
+        <v>-3.65</v>
+      </c>
       <c r="AO18" s="19">
-        <v>1E-4</v>
+        <f>'Metanol storage'!$T$12</f>
+        <v>253.16455696202533</v>
       </c>
       <c r="AP18" s="19">
-        <v>1E-4</v>
+        <f>'Metanol storage'!$T$12</f>
+        <v>253.16455696202533</v>
       </c>
       <c r="AQ18" s="19">
-        <v>1E-4</v>
+        <f>'Metanol storage'!$T$12</f>
+        <v>253.16455696202533</v>
       </c>
       <c r="AR18" s="19"/>
       <c r="AS18" s="19"/>
       <c r="AT18" s="19"/>
+      <c r="AU18" s="2">
+        <f>0.05*AO18</f>
+        <v>12.658227848101268</v>
+      </c>
+      <c r="AV18" s="2">
+        <f t="shared" ref="AV18:AW18" si="1">0.05*AP18</f>
+        <v>12.658227848101268</v>
+      </c>
+      <c r="AW18" s="2">
+        <f t="shared" si="1"/>
+        <v>12.658227848101268</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>0.4</v>
+      </c>
       <c r="BC18" s="16">
         <v>0</v>
       </c>
@@ -16376,19 +16117,19 @@
         <v>79</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>416</v>
+        <v>400</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="P19" s="2">
-        <v>1</v>
+        <v>31.536000000000001</v>
       </c>
       <c r="Q19" s="2">
         <v>2030</v>
@@ -16402,64 +16143,42 @@
       <c r="W19" s="2">
         <v>25</v>
       </c>
-      <c r="AB19" s="18" t="s">
+      <c r="AB19" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AC19" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AD19" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AK19" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AC19" s="18" t="s">
+      <c r="AL19" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AD19" s="18" t="s">
+      <c r="AM19" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AK19" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AL19" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AM19" s="19">
-        <v>-3.65</v>
-      </c>
       <c r="AO19" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
+        <v>1E-4</v>
       </c>
       <c r="AP19" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
+        <v>1E-4</v>
       </c>
       <c r="AQ19" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
+        <v>1E-4</v>
       </c>
       <c r="AR19" s="19"/>
       <c r="AS19" s="19"/>
       <c r="AT19" s="19"/>
-      <c r="AU19" s="2">
-        <f>0.05*AO19</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AV19" s="2">
-        <f t="shared" ref="AV19" si="4">0.05*AP19</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AW19" s="2">
-        <f t="shared" ref="AW19" si="5">0.05*AQ19</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AX19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AY19" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AZ19" s="2">
-        <v>0.4</v>
-      </c>
       <c r="BC19" s="16">
-        <v>0</v>
-      </c>
-      <c r="BD19" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="BD19" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
@@ -16483,23 +16202,9 @@
       <c r="I20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="P20" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>2030</v>
+      <c r="M20" s="1"/>
+      <c r="N20" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="R20" s="2">
         <v>0.01</v>
@@ -16510,520 +16215,544 @@
       <c r="T20" s="2">
         <v>0.01</v>
       </c>
-      <c r="U20" s="2">
-        <v>20</v>
-      </c>
-      <c r="V20" s="2">
-        <v>20</v>
-      </c>
-      <c r="W20" s="2">
-        <v>25</v>
-      </c>
-      <c r="AB20" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AC20" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AD20" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AK20" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL20" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM20" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO20" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AP20" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ20" s="19">
-        <v>1E-4</v>
-      </c>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="19"/>
       <c r="AR20" s="19"/>
       <c r="AS20" s="19"/>
       <c r="AT20" s="19"/>
-      <c r="BC20" s="16">
+      <c r="BC20" s="16"/>
+      <c r="BD20" s="16"/>
+    </row>
+    <row r="21" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="K21" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="P21" s="2">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>2030</v>
+      </c>
+      <c r="U21" s="2">
+        <v>20</v>
+      </c>
+      <c r="V21" s="2">
+        <v>20</v>
+      </c>
+      <c r="W21" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB21" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AC21" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AD21" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AK21" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL21" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM21" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO21" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AP21" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ21" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AR21" s="19"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="19"/>
+      <c r="BC21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="R22" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+    </row>
+    <row r="23" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="K23" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="P23" s="2">
         <v>1</v>
       </c>
-      <c r="BD20" s="16">
+      <c r="Q23" s="2">
+        <v>2030</v>
+      </c>
+      <c r="U23" s="2">
+        <v>20</v>
+      </c>
+      <c r="V23" s="2">
+        <v>20</v>
+      </c>
+      <c r="W23" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB23" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC23" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD23" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK23" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AL23" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AM23" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AO23" s="19">
+        <f>'JETFUEL storage'!$Q$11</f>
+        <v>193.70835270416862</v>
+      </c>
+      <c r="AP23" s="19">
+        <f>'JETFUEL storage'!$Q$11</f>
+        <v>193.70835270416862</v>
+      </c>
+      <c r="AQ23" s="19">
+        <f>'JETFUEL storage'!$Q$11</f>
+        <v>193.70835270416862</v>
+      </c>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="2">
+        <f>0.05*AO23</f>
+        <v>9.6854176352084309</v>
+      </c>
+      <c r="AV23" s="2">
+        <f t="shared" ref="AV23" si="2">0.05*AP23</f>
+        <v>9.6854176352084309</v>
+      </c>
+      <c r="AW23" s="2">
+        <f t="shared" ref="AW23" si="3">0.05*AQ23</f>
+        <v>9.6854176352084309</v>
+      </c>
+      <c r="AX23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AY23" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AZ23" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="BC23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="K24" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="P24" s="2">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>2030</v>
+      </c>
+      <c r="U24" s="2">
+        <v>20</v>
+      </c>
+      <c r="V24" s="2">
+        <v>20</v>
+      </c>
+      <c r="W24" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB24" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AC24" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AD24" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AK24" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL24" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM24" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO24" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AP24" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ24" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="BC24" s="2">
         <v>1</v>
       </c>
+      <c r="BD24" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="M25" s="1"/>
       <c r="N25" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="R25" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
     </row>
     <row r="26" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="N26" s="2" t="s">
+      <c r="K26" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>2030</v>
+      </c>
+      <c r="U26" s="2">
+        <v>20</v>
+      </c>
+      <c r="V26" s="2">
+        <v>20</v>
+      </c>
+      <c r="W26" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB26" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AC26" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AD26" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AK26" s="19" t="s">
         <v>94</v>
       </c>
+      <c r="AL26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO26" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AP26" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ26" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AR26" s="19"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="BC26" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="16"/>
     </row>
     <row r="27" spans="2:56" x14ac:dyDescent="0.25">
       <c r="N27" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="O27" s="1"/>
+      <c r="R27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="19"/>
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="19"/>
+      <c r="BC27" s="16"/>
+      <c r="BD27" s="16"/>
     </row>
     <row r="28" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="N28" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K28" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>2030</v>
+      </c>
+      <c r="U28" s="2">
+        <v>20</v>
+      </c>
+      <c r="V28" s="2">
+        <v>20</v>
+      </c>
+      <c r="W28" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB28" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC28" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD28" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK28" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AL28" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AM28" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AO28" s="19">
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
+      </c>
+      <c r="AP28" s="19">
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
+      </c>
+      <c r="AQ28" s="19">
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
+      </c>
+      <c r="AR28" s="19"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="2">
+        <f>0.05*AO28</f>
+        <v>5.3571428571428577</v>
+      </c>
+      <c r="AV28" s="2">
+        <f t="shared" ref="AV28" si="4">0.05*AP28</f>
+        <v>5.3571428571428577</v>
+      </c>
+      <c r="AW28" s="2">
+        <f t="shared" ref="AW28" si="5">0.05*AQ28</f>
+        <v>5.3571428571428577</v>
+      </c>
+      <c r="AX28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AY28" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AZ28" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="BC28" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="16"/>
     </row>
     <row r="29" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="N29" s="2" t="s">
+      <c r="K29" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>2030</v>
+      </c>
+      <c r="U29" s="2">
+        <v>20</v>
+      </c>
+      <c r="V29" s="2">
+        <v>20</v>
+      </c>
+      <c r="W29" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB29" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AC29" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AD29" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AK29" s="19" t="s">
         <v>94</v>
+      </c>
+      <c r="AL29" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM29" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO29" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AP29" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ29" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AR29" s="19"/>
+      <c r="AS29" s="19"/>
+      <c r="AT29" s="19"/>
+      <c r="BC29" s="16">
+        <v>1</v>
+      </c>
+      <c r="BD29" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:56" x14ac:dyDescent="0.25">
       <c r="N30" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P31" s="2">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>2030</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U31" s="2">
-        <v>20</v>
-      </c>
-      <c r="V31" s="2">
-        <v>25</v>
-      </c>
-      <c r="W31" s="2">
-        <v>30</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB31" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="AC31" s="2">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="AD31" s="2">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="AE31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO31" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="AP31" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ31" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="AR31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="P32" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>2030</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U32" s="2">
-        <v>20</v>
-      </c>
-      <c r="V32" s="2">
-        <v>25</v>
-      </c>
-      <c r="W32" s="2">
-        <v>30</v>
-      </c>
-      <c r="X32" s="2">
-        <v>14000</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>30000</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>50000</v>
-      </c>
-      <c r="AA32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK32" s="2">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="AL32" s="2">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="AM32" s="2">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="AN32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO32" s="2">
-        <f>('180 Lithium Ion Battery'!E25+'180 Lithium Ion Battery'!E27)/0.0000036</f>
-        <v>41945.222222222219</v>
-      </c>
-      <c r="AP32" s="2">
-        <f>('180 Lithium Ion Battery'!F25+'180 Lithium Ion Battery'!F27)/0.0000036</f>
-        <v>27766.555555555551</v>
-      </c>
-      <c r="AQ32" s="2">
-        <f>('180 Lithium Ion Battery'!G25+'180 Lithium Ion Battery'!G27)/0.0000036</f>
-        <v>22154.166666666664</v>
-      </c>
-      <c r="AU32" s="2">
-        <f>'180 Lithium Ion Battery'!E29/(1000000*0.0000036)</f>
-        <v>0.53169999999999995</v>
-      </c>
-      <c r="AV32" s="2">
-        <f>'180 Lithium Ion Battery'!F29/(1000000*0.0000036)</f>
-        <v>0.50216111111111106</v>
-      </c>
-      <c r="AW32" s="2">
-        <f>'180 Lithium Ion Battery'!G29/(1000000*0.0000036)</f>
-        <v>0.47262222222222222</v>
-      </c>
-      <c r="AX32" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AY32" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AZ32" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="BC32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P33" s="2">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>2030</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U33" s="2">
-        <v>20</v>
-      </c>
-      <c r="V33" s="2">
-        <v>25</v>
-      </c>
-      <c r="W33" s="2">
-        <v>30</v>
-      </c>
-      <c r="X33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB33" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="AC33" s="2">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="AD33" s="2">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="AE33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO33" s="2">
-        <f>'180 Lithium Ion Battery'!E26*1000</f>
-        <v>170.14399999999998</v>
-      </c>
-      <c r="AP33" s="2">
-        <f>'180 Lithium Ion Battery'!F26*1000</f>
-        <v>106.33999999999999</v>
-      </c>
-      <c r="AQ33" s="2">
-        <f>'180 Lithium Ion Battery'!G26*1000</f>
-        <v>63.803999999999988</v>
-      </c>
-      <c r="AR33" s="17">
-        <f>'180 Lithium Ion Battery'!E28</f>
-        <v>0.57423599999999997</v>
-      </c>
-      <c r="AS33" s="17">
-        <f>'180 Lithium Ion Battery'!F28</f>
-        <v>0.57423599999999997</v>
-      </c>
-      <c r="AT33" s="17">
-        <f>'180 Lithium Ion Battery'!G28</f>
-        <v>0.57423599999999997</v>
-      </c>
-      <c r="AU33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC33" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="N34" s="2" t="s">
-        <v>103</v>
+      <c r="R30" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="2:56" x14ac:dyDescent="0.25">
@@ -17031,19 +16760,443 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="N36" s="2" t="s">
+    <row r="38" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N38" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="N37" s="2" t="s">
+      <c r="O40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P40" s="2">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U40" s="2">
+        <v>20</v>
+      </c>
+      <c r="V40" s="2">
+        <v>25</v>
+      </c>
+      <c r="W40" s="2">
+        <v>30</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AE40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO40" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AP40" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ40" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AR40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U41" s="2">
+        <v>20</v>
+      </c>
+      <c r="V41" s="2">
+        <v>25</v>
+      </c>
+      <c r="W41" s="2">
+        <v>30</v>
+      </c>
+      <c r="X41" s="2">
+        <v>14000</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>30000</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK41" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AL41" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AM41" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AN41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO41" s="2">
+        <f>('180 Lithium Ion Battery'!E25+'180 Lithium Ion Battery'!E27)/0.0000036</f>
+        <v>41945.222222222219</v>
+      </c>
+      <c r="AP41" s="2">
+        <f>('180 Lithium Ion Battery'!F25+'180 Lithium Ion Battery'!F27)/0.0000036</f>
+        <v>27766.555555555551</v>
+      </c>
+      <c r="AQ41" s="2">
+        <f>('180 Lithium Ion Battery'!G25+'180 Lithium Ion Battery'!G27)/0.0000036</f>
+        <v>22154.166666666664</v>
+      </c>
+      <c r="AU41" s="2">
+        <f>'180 Lithium Ion Battery'!E29/(1000000*0.0000036)</f>
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="AV41" s="2">
+        <f>'180 Lithium Ion Battery'!F29/(1000000*0.0000036)</f>
+        <v>0.50216111111111106</v>
+      </c>
+      <c r="AW41" s="2">
+        <f>'180 Lithium Ion Battery'!G29/(1000000*0.0000036)</f>
+        <v>0.47262222222222222</v>
+      </c>
+      <c r="AX41" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AY41" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AZ41" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="BC41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O42" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="39" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="N39" s="2" t="s">
-        <v>103</v>
+      <c r="P42" s="2">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U42" s="2">
+        <v>20</v>
+      </c>
+      <c r="V42" s="2">
+        <v>25</v>
+      </c>
+      <c r="W42" s="2">
+        <v>30</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AE42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO42" s="2">
+        <f>'180 Lithium Ion Battery'!E26*1000</f>
+        <v>170.14399999999998</v>
+      </c>
+      <c r="AP42" s="2">
+        <f>'180 Lithium Ion Battery'!F26*1000</f>
+        <v>106.33999999999999</v>
+      </c>
+      <c r="AQ42" s="2">
+        <f>'180 Lithium Ion Battery'!G26*1000</f>
+        <v>63.803999999999988</v>
+      </c>
+      <c r="AR42" s="17">
+        <f>'180 Lithium Ion Battery'!E28</f>
+        <v>0.57423599999999997</v>
+      </c>
+      <c r="AS42" s="17">
+        <f>'180 Lithium Ion Battery'!F28</f>
+        <v>0.57423599999999997</v>
+      </c>
+      <c r="AT42" s="17">
+        <f>'180 Lithium Ion Battery'!G28</f>
+        <v>0.57423599999999997</v>
+      </c>
+      <c r="AU42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC42" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N44" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF572AD-A11A-4258-BB31-1B65C0870873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68904BC0-5AE8-4C08-AE61-3258D60D0261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="454">
   <si>
     <t>TechName</t>
   </si>
@@ -14380,8 +14380,8 @@
   </sheetPr>
   <dimension ref="A2:BE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16498,82 +16498,24 @@
       <c r="AT25" s="19"/>
     </row>
     <row r="26" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="K26" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="P26" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>2030</v>
-      </c>
-      <c r="U26" s="2">
-        <v>20</v>
-      </c>
-      <c r="V26" s="2">
-        <v>20</v>
-      </c>
-      <c r="W26" s="2">
-        <v>25</v>
-      </c>
-      <c r="AB26" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AC26" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AD26" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AK26" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL26" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM26" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO26" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AP26" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ26" s="19">
-        <v>1E-4</v>
-      </c>
+      <c r="O26" s="1"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
       <c r="AR26" s="19"/>
       <c r="AS26" s="19"/>
       <c r="AT26" s="19"/>
-      <c r="BC26" s="16">
-        <v>0</v>
-      </c>
+      <c r="BC26" s="16"/>
       <c r="BD26" s="16"/>
     </row>
     <row r="27" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="N27" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="O27" s="1"/>
-      <c r="R27" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="S27" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T27" s="2">
-        <v>0.01</v>
-      </c>
       <c r="AB27" s="18"/>
       <c r="AC27" s="18"/>
       <c r="AD27" s="18"/>
@@ -16590,174 +16532,296 @@
       <c r="BD27" s="16"/>
     </row>
     <row r="28" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="K28" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="P28" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>2030</v>
-      </c>
-      <c r="U28" s="2">
-        <v>20</v>
-      </c>
-      <c r="V28" s="2">
-        <v>20</v>
-      </c>
-      <c r="W28" s="2">
-        <v>25</v>
-      </c>
-      <c r="AB28" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC28" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD28" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK28" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AL28" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AM28" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AO28" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
-      </c>
-      <c r="AP28" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
-      </c>
-      <c r="AQ28" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
-      </c>
+      <c r="M28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="19"/>
       <c r="AR28" s="19"/>
       <c r="AS28" s="19"/>
       <c r="AT28" s="19"/>
-      <c r="AU28" s="2">
-        <f>0.05*AO28</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AV28" s="2">
-        <f t="shared" ref="AV28" si="4">0.05*AP28</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AW28" s="2">
-        <f t="shared" ref="AW28" si="5">0.05*AQ28</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AX28" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AY28" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AZ28" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="BC28" s="16">
-        <v>0</v>
-      </c>
+      <c r="BC28" s="16"/>
       <c r="BD28" s="16"/>
     </row>
     <row r="29" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="K29" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="P29" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>2030</v>
-      </c>
-      <c r="U29" s="2">
-        <v>20</v>
-      </c>
-      <c r="V29" s="2">
-        <v>20</v>
-      </c>
-      <c r="W29" s="2">
-        <v>25</v>
-      </c>
-      <c r="AB29" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AC29" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AD29" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AK29" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL29" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM29" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO29" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AP29" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ29" s="19">
-        <v>1E-4</v>
-      </c>
+      <c r="M29" s="1"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="19"/>
       <c r="AR29" s="19"/>
       <c r="AS29" s="19"/>
       <c r="AT29" s="19"/>
-      <c r="BC29" s="16">
+      <c r="BC29" s="16"/>
+      <c r="BD29" s="16"/>
+    </row>
+    <row r="32" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="K32" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="P32" s="2">
         <v>1</v>
       </c>
-      <c r="BD29" s="16">
+      <c r="Q32" s="2">
+        <v>2030</v>
+      </c>
+      <c r="U32" s="2">
+        <v>20</v>
+      </c>
+      <c r="V32" s="2">
+        <v>20</v>
+      </c>
+      <c r="W32" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB32" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AC32" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AD32" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AK32" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL32" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM32" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO32" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AP32" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ32" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AR32" s="19"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="19"/>
+      <c r="BC32" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD32" s="16"/>
+    </row>
+    <row r="33" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="R33" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AK33" s="19"/>
+      <c r="AL33" s="19"/>
+      <c r="AM33" s="19"/>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="19"/>
+      <c r="AQ33" s="19"/>
+      <c r="AR33" s="19"/>
+      <c r="AS33" s="19"/>
+      <c r="AT33" s="19"/>
+      <c r="BC33" s="16"/>
+      <c r="BD33" s="16"/>
+    </row>
+    <row r="34" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="K34" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="P34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="N30" s="2" t="s">
+      <c r="Q34" s="2">
+        <v>2030</v>
+      </c>
+      <c r="U34" s="2">
+        <v>20</v>
+      </c>
+      <c r="V34" s="2">
+        <v>20</v>
+      </c>
+      <c r="W34" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB34" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC34" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD34" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK34" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AL34" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AM34" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AO34" s="19">
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
+      </c>
+      <c r="AP34" s="19">
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
+      </c>
+      <c r="AQ34" s="19">
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
+      </c>
+      <c r="AR34" s="19"/>
+      <c r="AS34" s="19"/>
+      <c r="AT34" s="19"/>
+      <c r="AU34" s="2">
+        <f>0.05*AO34</f>
+        <v>5.3571428571428577</v>
+      </c>
+      <c r="AV34" s="2">
+        <f t="shared" ref="AV34" si="4">0.05*AP34</f>
+        <v>5.3571428571428577</v>
+      </c>
+      <c r="AW34" s="2">
+        <f t="shared" ref="AW34" si="5">0.05*AQ34</f>
+        <v>5.3571428571428577</v>
+      </c>
+      <c r="AX34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AY34" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AZ34" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="BC34" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD34" s="16"/>
+    </row>
+    <row r="35" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="K35" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>2030</v>
+      </c>
+      <c r="U35" s="2">
+        <v>20</v>
+      </c>
+      <c r="V35" s="2">
+        <v>20</v>
+      </c>
+      <c r="W35" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB35" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AC35" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AD35" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AK35" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL35" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM35" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO35" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AP35" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ35" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AR35" s="19"/>
+      <c r="AS35" s="19"/>
+      <c r="AT35" s="19"/>
+      <c r="BC35" s="16">
+        <v>1</v>
+      </c>
+      <c r="BD35" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N36" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R36" s="2">
         <v>0.01</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S36" s="2">
         <v>0.01</v>
       </c>
-      <c r="T30" s="2">
+      <c r="T36" s="2">
         <v>0.01</v>
-      </c>
-    </row>
-    <row r="35" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="N35" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="38" spans="2:56" x14ac:dyDescent="0.25">

--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68904BC0-5AE8-4C08-AE61-3258D60D0261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB77724-967E-458F-9954-CF2B33A55166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="454">
   <si>
     <t>TechName</t>
   </si>
@@ -14380,8 +14380,8 @@
   </sheetPr>
   <dimension ref="A2:BE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15083,6 +15083,9 @@
       <c r="N7" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="Q7" s="2">
+        <v>2030</v>
+      </c>
       <c r="R7" s="2">
         <v>0.01</v>
       </c>
@@ -15434,6 +15437,9 @@
       <c r="N10" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="Q10" s="2">
+        <v>2030</v>
+      </c>
       <c r="R10" s="2">
         <v>0.01</v>
       </c>
@@ -15462,9 +15468,6 @@
       <c r="AR10" s="19"/>
       <c r="AS10" s="19"/>
       <c r="AT10" s="19"/>
-      <c r="AU10" s="19"/>
-      <c r="AV10" s="19"/>
-      <c r="AW10" s="19"/>
       <c r="BC10" s="16"/>
       <c r="BD10" s="16"/>
     </row>
@@ -15544,15 +15547,6 @@
       <c r="AQ11" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AR11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT11" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="BC11" s="2">
         <v>0</v>
       </c>
@@ -15583,6 +15577,9 @@
         <v>103</v>
       </c>
       <c r="O12" s="1"/>
+      <c r="Q12" s="2">
+        <v>2030</v>
+      </c>
       <c r="R12" s="2">
         <v>0.01</v>
       </c>
@@ -15601,9 +15598,6 @@
       <c r="AO12" s="19"/>
       <c r="AP12" s="19"/>
       <c r="AQ12" s="19"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
@@ -15684,27 +15678,6 @@
         <f>'Ammonia storage'!$R$11</f>
         <v>393.70078740157487</v>
       </c>
-      <c r="AR13" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS13" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT13" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU13" s="2">
-        <f>0.05*AO13</f>
-        <v>19.685039370078744</v>
-      </c>
-      <c r="AV13" s="2">
-        <f t="shared" ref="AV13:AW13" si="0">0.05*AP13</f>
-        <v>19.685039370078744</v>
-      </c>
-      <c r="AW13" s="2">
-        <f t="shared" si="0"/>
-        <v>19.685039370078744</v>
-      </c>
       <c r="AX13" s="2">
         <v>0.5</v>
       </c>
@@ -15794,9 +15767,18 @@
       <c r="AQ14" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AR14" s="19"/>
-      <c r="AS14" s="19"/>
-      <c r="AT14" s="19"/>
+      <c r="AR14" s="2">
+        <f>0.05*AO13</f>
+        <v>19.685039370078744</v>
+      </c>
+      <c r="AS14" s="2">
+        <f>0.05*AP13</f>
+        <v>19.685039370078744</v>
+      </c>
+      <c r="AT14" s="2">
+        <f>0.05*AQ13</f>
+        <v>19.685039370078744</v>
+      </c>
       <c r="BC14" s="2">
         <v>1</v>
       </c>
@@ -15829,6 +15811,9 @@
       <c r="M15" s="1"/>
       <c r="N15" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>2030</v>
       </c>
       <c r="R15" s="2">
         <v>0.01</v>
@@ -15848,9 +15833,6 @@
       <c r="AO15" s="19"/>
       <c r="AP15" s="19"/>
       <c r="AQ15" s="19"/>
-      <c r="AR15" s="19"/>
-      <c r="AS15" s="19"/>
-      <c r="AT15" s="19"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -15928,9 +15910,6 @@
       <c r="AQ16" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="19"/>
       <c r="BC16" s="16">
         <v>0</v>
       </c>
@@ -15962,6 +15941,9 @@
         <v>103</v>
       </c>
       <c r="O17" s="1"/>
+      <c r="Q17" s="2">
+        <v>2030</v>
+      </c>
       <c r="R17" s="2">
         <v>0.01</v>
       </c>
@@ -15980,9 +15962,6 @@
       <c r="AO17" s="19"/>
       <c r="AP17" s="19"/>
       <c r="AQ17" s="19"/>
-      <c r="AR17" s="19"/>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="19"/>
       <c r="BC17" s="16"/>
       <c r="BD17" s="16"/>
     </row>
@@ -16065,21 +16044,6 @@
         <f>'Metanol storage'!$T$12</f>
         <v>253.16455696202533</v>
       </c>
-      <c r="AR18" s="19"/>
-      <c r="AS18" s="19"/>
-      <c r="AT18" s="19"/>
-      <c r="AU18" s="2">
-        <f>0.05*AO18</f>
-        <v>12.658227848101268</v>
-      </c>
-      <c r="AV18" s="2">
-        <f t="shared" ref="AV18:AW18" si="1">0.05*AP18</f>
-        <v>12.658227848101268</v>
-      </c>
-      <c r="AW18" s="2">
-        <f t="shared" si="1"/>
-        <v>12.658227848101268</v>
-      </c>
       <c r="AX18" s="2">
         <v>0.5</v>
       </c>
@@ -16170,9 +16134,18 @@
       <c r="AQ19" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AR19" s="19"/>
-      <c r="AS19" s="19"/>
-      <c r="AT19" s="19"/>
+      <c r="AR19" s="2">
+        <f>0.05*AO18</f>
+        <v>12.658227848101268</v>
+      </c>
+      <c r="AS19" s="2">
+        <f>0.05*AP18</f>
+        <v>12.658227848101268</v>
+      </c>
+      <c r="AT19" s="2">
+        <f>0.05*AQ18</f>
+        <v>12.658227848101268</v>
+      </c>
       <c r="BC19" s="16">
         <v>1</v>
       </c>
@@ -16205,6 +16178,9 @@
       <c r="M20" s="1"/>
       <c r="N20" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>2030</v>
       </c>
       <c r="R20" s="2">
         <v>0.01</v>
@@ -16224,9 +16200,6 @@
       <c r="AO20" s="19"/>
       <c r="AP20" s="19"/>
       <c r="AQ20" s="19"/>
-      <c r="AR20" s="19"/>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="19"/>
       <c r="BC20" s="16"/>
       <c r="BD20" s="16"/>
     </row>
@@ -16285,9 +16258,6 @@
       <c r="AQ21" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AR21" s="19"/>
-      <c r="AS21" s="19"/>
-      <c r="AT21" s="19"/>
       <c r="BC21" s="2">
         <v>0</v>
       </c>
@@ -16297,6 +16267,9 @@
         <v>103</v>
       </c>
       <c r="O22" s="1"/>
+      <c r="Q22" s="2">
+        <v>2030</v>
+      </c>
       <c r="R22" s="2">
         <v>0.01</v>
       </c>
@@ -16315,9 +16288,6 @@
       <c r="AO22" s="19"/>
       <c r="AP22" s="19"/>
       <c r="AQ22" s="19"/>
-      <c r="AR22" s="19"/>
-      <c r="AS22" s="19"/>
-      <c r="AT22" s="19"/>
     </row>
     <row r="23" spans="2:56" x14ac:dyDescent="0.25">
       <c r="K23" s="2" t="s">
@@ -16377,21 +16347,6 @@
         <f>'JETFUEL storage'!$Q$11</f>
         <v>193.70835270416862</v>
       </c>
-      <c r="AR23" s="19"/>
-      <c r="AS23" s="19"/>
-      <c r="AT23" s="19"/>
-      <c r="AU23" s="2">
-        <f>0.05*AO23</f>
-        <v>9.6854176352084309</v>
-      </c>
-      <c r="AV23" s="2">
-        <f t="shared" ref="AV23" si="2">0.05*AP23</f>
-        <v>9.6854176352084309</v>
-      </c>
-      <c r="AW23" s="2">
-        <f t="shared" ref="AW23" si="3">0.05*AQ23</f>
-        <v>9.6854176352084309</v>
-      </c>
       <c r="AX23" s="2">
         <v>0.5</v>
       </c>
@@ -16460,9 +16415,18 @@
       <c r="AQ24" s="19">
         <v>1E-4</v>
       </c>
-      <c r="AR24" s="19"/>
-      <c r="AS24" s="19"/>
-      <c r="AT24" s="19"/>
+      <c r="AR24" s="2">
+        <f>0.05*AO23</f>
+        <v>9.6854176352084309</v>
+      </c>
+      <c r="AS24" s="2">
+        <f>0.05*AP23</f>
+        <v>9.6854176352084309</v>
+      </c>
+      <c r="AT24" s="2">
+        <f>0.05*AQ23</f>
+        <v>9.6854176352084309</v>
+      </c>
       <c r="BC24" s="2">
         <v>1</v>
       </c>
@@ -16474,6 +16438,9 @@
       <c r="M25" s="1"/>
       <c r="N25" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>2030</v>
       </c>
       <c r="R25" s="2">
         <v>0.01</v>
@@ -16493,9 +16460,6 @@
       <c r="AO25" s="19"/>
       <c r="AP25" s="19"/>
       <c r="AQ25" s="19"/>
-      <c r="AR25" s="19"/>
-      <c r="AS25" s="19"/>
-      <c r="AT25" s="19"/>
     </row>
     <row r="26" spans="2:56" x14ac:dyDescent="0.25">
       <c r="O26" s="1"/>
@@ -16724,11 +16688,11 @@
         <v>5.3571428571428577</v>
       </c>
       <c r="AV34" s="2">
-        <f t="shared" ref="AV34" si="4">0.05*AP34</f>
+        <f t="shared" ref="AV34" si="0">0.05*AP34</f>
         <v>5.3571428571428577</v>
       </c>
       <c r="AW34" s="2">
-        <f t="shared" ref="AW34" si="5">0.05*AQ34</f>
+        <f t="shared" ref="AW34" si="1">0.05*AQ34</f>
         <v>5.3571428571428577</v>
       </c>
       <c r="AX34" s="2">

--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB77724-967E-458F-9954-CF2B33A55166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BED3997-3213-478F-A9B7-A9DCE06086C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14380,7 +14380,7 @@
   </sheetPr>
   <dimension ref="A2:BE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BED3997-3213-478F-A9B7-A9DCE06086C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857BF663-869D-4027-B5BE-4033F92783BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="454">
   <si>
     <t>TechName</t>
   </si>
@@ -14380,8 +14380,8 @@
   </sheetPr>
   <dimension ref="A2:BE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21:Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16435,34 +16435,85 @@
       </c>
     </row>
     <row r="25" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="M25" s="1"/>
-      <c r="N25" s="2" t="s">
-        <v>103</v>
+      <c r="K25" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
       </c>
       <c r="Q25" s="2">
         <v>2030</v>
       </c>
-      <c r="R25" s="2">
+      <c r="U25" s="2">
+        <v>20</v>
+      </c>
+      <c r="V25" s="2">
+        <v>20</v>
+      </c>
+      <c r="W25" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB25" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AC25" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AD25" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AK25" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL25" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM25" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO25" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AP25" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ25" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+      <c r="BC25" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="16"/>
+    </row>
+    <row r="26" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="Q26" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R26" s="2">
         <v>0.01</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S26" s="2">
         <v>0.01</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T26" s="2">
         <v>0.01</v>
       </c>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
-      <c r="AO25" s="19"/>
-      <c r="AP25" s="19"/>
-      <c r="AQ25" s="19"/>
-    </row>
-    <row r="26" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="O26" s="1"/>
       <c r="AB26" s="18"/>
       <c r="AC26" s="18"/>
       <c r="AD26" s="18"/>
@@ -16479,312 +16530,171 @@
       <c r="BD26" s="16"/>
     </row>
     <row r="27" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="O27" s="1"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AK27" s="19"/>
-      <c r="AL27" s="19"/>
-      <c r="AM27" s="19"/>
-      <c r="AO27" s="19"/>
-      <c r="AP27" s="19"/>
-      <c r="AQ27" s="19"/>
+      <c r="K27" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>2030</v>
+      </c>
+      <c r="U27" s="2">
+        <v>20</v>
+      </c>
+      <c r="V27" s="2">
+        <v>20</v>
+      </c>
+      <c r="W27" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB27" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC27" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD27" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK27" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AL27" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AM27" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AO27" s="19">
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
+      </c>
+      <c r="AP27" s="19">
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
+      </c>
+      <c r="AQ27" s="19">
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
+      </c>
       <c r="AR27" s="19"/>
       <c r="AS27" s="19"/>
       <c r="AT27" s="19"/>
-      <c r="BC27" s="16"/>
+      <c r="AU27" s="2">
+        <f>0.05*AO27</f>
+        <v>5.3571428571428577</v>
+      </c>
+      <c r="AV27" s="2">
+        <f t="shared" ref="AV27" si="0">0.05*AP27</f>
+        <v>5.3571428571428577</v>
+      </c>
+      <c r="AW27" s="2">
+        <f t="shared" ref="AW27" si="1">0.05*AQ27</f>
+        <v>5.3571428571428577</v>
+      </c>
+      <c r="AX27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AY27" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AZ27" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="BC27" s="16">
+        <v>0</v>
+      </c>
       <c r="BD27" s="16"/>
     </row>
     <row r="28" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="M28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="19"/>
-      <c r="AM28" s="19"/>
-      <c r="AO28" s="19"/>
-      <c r="AP28" s="19"/>
-      <c r="AQ28" s="19"/>
+      <c r="K28" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>2030</v>
+      </c>
+      <c r="U28" s="2">
+        <v>20</v>
+      </c>
+      <c r="V28" s="2">
+        <v>20</v>
+      </c>
+      <c r="W28" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB28" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AC28" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AD28" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AK28" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL28" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM28" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO28" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AP28" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ28" s="19">
+        <v>1E-4</v>
+      </c>
       <c r="AR28" s="19"/>
       <c r="AS28" s="19"/>
       <c r="AT28" s="19"/>
-      <c r="BC28" s="16"/>
-      <c r="BD28" s="16"/>
+      <c r="BC28" s="16">
+        <v>1</v>
+      </c>
+      <c r="BD28" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="M29" s="1"/>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="18"/>
-      <c r="AD29" s="18"/>
-      <c r="AK29" s="19"/>
-      <c r="AL29" s="19"/>
-      <c r="AM29" s="19"/>
-      <c r="AO29" s="19"/>
-      <c r="AP29" s="19"/>
-      <c r="AQ29" s="19"/>
-      <c r="AR29" s="19"/>
-      <c r="AS29" s="19"/>
-      <c r="AT29" s="19"/>
-      <c r="BC29" s="16"/>
-      <c r="BD29" s="16"/>
-    </row>
-    <row r="32" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="K32" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="P32" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="2">
+      <c r="N29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q29" s="2">
         <v>2030</v>
       </c>
-      <c r="U32" s="2">
-        <v>20</v>
-      </c>
-      <c r="V32" s="2">
-        <v>20</v>
-      </c>
-      <c r="W32" s="2">
-        <v>25</v>
-      </c>
-      <c r="AB32" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AC32" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AD32" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AK32" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL32" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM32" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO32" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AP32" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ32" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AR32" s="19"/>
-      <c r="AS32" s="19"/>
-      <c r="AT32" s="19"/>
-      <c r="BC32" s="16">
-        <v>0</v>
-      </c>
-      <c r="BD32" s="16"/>
-    </row>
-    <row r="33" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="N33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O33" s="1"/>
-      <c r="R33" s="2">
+      <c r="R29" s="2">
         <v>0.01</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S29" s="2">
         <v>0.01</v>
       </c>
-      <c r="T33" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="18"/>
-      <c r="AD33" s="18"/>
-      <c r="AK33" s="19"/>
-      <c r="AL33" s="19"/>
-      <c r="AM33" s="19"/>
-      <c r="AO33" s="19"/>
-      <c r="AP33" s="19"/>
-      <c r="AQ33" s="19"/>
-      <c r="AR33" s="19"/>
-      <c r="AS33" s="19"/>
-      <c r="AT33" s="19"/>
-      <c r="BC33" s="16"/>
-      <c r="BD33" s="16"/>
-    </row>
-    <row r="34" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="K34" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="P34" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>2030</v>
-      </c>
-      <c r="U34" s="2">
-        <v>20</v>
-      </c>
-      <c r="V34" s="2">
-        <v>20</v>
-      </c>
-      <c r="W34" s="2">
-        <v>25</v>
-      </c>
-      <c r="AB34" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC34" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD34" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK34" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AL34" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AM34" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AO34" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
-      </c>
-      <c r="AP34" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
-      </c>
-      <c r="AQ34" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
-      </c>
-      <c r="AR34" s="19"/>
-      <c r="AS34" s="19"/>
-      <c r="AT34" s="19"/>
-      <c r="AU34" s="2">
-        <f>0.05*AO34</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AV34" s="2">
-        <f t="shared" ref="AV34" si="0">0.05*AP34</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AW34" s="2">
-        <f t="shared" ref="AW34" si="1">0.05*AQ34</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AX34" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AY34" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AZ34" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="BC34" s="16">
-        <v>0</v>
-      </c>
-      <c r="BD34" s="16"/>
-    </row>
-    <row r="35" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="K35" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="P35" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>2030</v>
-      </c>
-      <c r="U35" s="2">
-        <v>20</v>
-      </c>
-      <c r="V35" s="2">
-        <v>20</v>
-      </c>
-      <c r="W35" s="2">
-        <v>25</v>
-      </c>
-      <c r="AB35" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AC35" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AD35" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AK35" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL35" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM35" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO35" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AP35" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ35" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AR35" s="19"/>
-      <c r="AS35" s="19"/>
-      <c r="AT35" s="19"/>
-      <c r="BC35" s="16">
-        <v>1</v>
-      </c>
-      <c r="BD35" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="N36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="R36" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="S36" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T36" s="2">
+      <c r="T29" s="2">
         <v>0.01</v>
       </c>
     </row>

--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857BF663-869D-4027-B5BE-4033F92783BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D0260F-2BB0-4652-83EE-C1EFA24F1E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14381,7 +14381,7 @@
   <dimension ref="A2:BE44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21:Q29"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D0260F-2BB0-4652-83EE-C1EFA24F1E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797A1F49-C9E8-4701-B30F-4F70BD63E9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14380,7 +14380,7 @@
   </sheetPr>
   <dimension ref="A2:BE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797A1F49-C9E8-4701-B30F-4F70BD63E9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D580FD-3F91-40AD-BC60-D12DA4038AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1636,15 +1636,6 @@
     <t>H2</t>
   </si>
   <si>
-    <t>INPUT~2030</t>
-  </si>
-  <si>
-    <t>INPUT~2040</t>
-  </si>
-  <si>
-    <t>INPUT~2050</t>
-  </si>
-  <si>
     <t>LIFE~2040</t>
   </si>
   <si>
@@ -1859,6 +1850,15 @@
   </si>
   <si>
     <t>KRE</t>
+  </si>
+  <si>
+    <t>PRC_ACTFLO~2030</t>
+  </si>
+  <si>
+    <t>PRC_ACTFLO~2040</t>
+  </si>
+  <si>
+    <t>PRC_ACTFLO~2050</t>
   </si>
 </sst>
 </file>
@@ -13945,7 +13945,7 @@
         <v>119</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>120</v>
@@ -13967,7 +13967,7 @@
         <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>122</v>
@@ -13989,7 +13989,7 @@
         <v>119</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>120</v>
@@ -14011,7 +14011,7 @@
         <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>122</v>
@@ -14033,7 +14033,7 @@
         <v>119</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>120</v>
@@ -14055,7 +14055,7 @@
         <v>119</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>122</v>
@@ -14077,13 +14077,13 @@
         <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>121</v>
@@ -14099,13 +14099,13 @@
         <v>119</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>121</v>
@@ -14381,7 +14381,7 @@
   <dimension ref="A2:BE44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14517,19 +14517,19 @@
         <v>4</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>380</v>
+        <v>452</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>381</v>
+        <v>453</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>57</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="W3" s="12" t="s">
         <v>82</v>
@@ -14538,7 +14538,7 @@
         <v>68</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Z3" s="11" t="s">
         <v>69</v>
@@ -14550,7 +14550,7 @@
         <v>65</v>
       </c>
       <c r="AC3" s="11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AD3" s="11" t="s">
         <v>83</v>
@@ -14559,7 +14559,7 @@
         <v>66</v>
       </c>
       <c r="AF3" s="11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AG3" s="11" t="s">
         <v>84</v>
@@ -14568,7 +14568,7 @@
         <v>87</v>
       </c>
       <c r="AI3" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AJ3" s="11" t="s">
         <v>88</v>
@@ -14577,7 +14577,7 @@
         <v>67</v>
       </c>
       <c r="AL3" s="12" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AM3" s="12" t="s">
         <v>85</v>
@@ -14589,7 +14589,7 @@
         <v>55</v>
       </c>
       <c r="AP3" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AQ3" s="11" t="s">
         <v>56</v>
@@ -14598,7 +14598,7 @@
         <v>70</v>
       </c>
       <c r="AS3" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AT3" s="11" t="s">
         <v>86</v>
@@ -14607,19 +14607,19 @@
         <v>58</v>
       </c>
       <c r="AV3" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AW3" s="12" t="s">
         <v>59</v>
       </c>
       <c r="AX3" s="12" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AY3" s="12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AZ3" s="12" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="BC3" s="12" t="s">
         <v>21</v>
@@ -14771,13 +14771,13 @@
         <v>46</v>
       </c>
       <c r="AX4" s="14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AY4" s="14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AZ4" s="14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="BC4" s="15" t="s">
         <v>49</v>
@@ -14908,13 +14908,13 @@
         <v>108</v>
       </c>
       <c r="AX5" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AY5" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AZ5" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="BC5" s="15" t="s">
         <v>48</v>
@@ -15278,10 +15278,10 @@
         <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>104</v>
@@ -15415,10 +15415,10 @@
         <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>104</v>
@@ -15476,10 +15476,10 @@
         <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>104</v>
@@ -15494,16 +15494,16 @@
         <v>79</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="P11" s="2">
         <v>31.536000000000001</v>
@@ -15556,10 +15556,10 @@
         <v>109</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>104</v>
@@ -15604,10 +15604,10 @@
         <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>104</v>
@@ -15622,16 +15622,16 @@
         <v>79</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
@@ -15696,10 +15696,10 @@
         <v>109</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>104</v>
@@ -15714,16 +15714,16 @@
         <v>79</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="M14" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="P14" s="2">
         <v>31.536000000000001</v>
@@ -15791,10 +15791,10 @@
         <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>104</v>
@@ -15839,10 +15839,10 @@
         <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>104</v>
@@ -15857,16 +15857,16 @@
         <v>79</v>
       </c>
       <c r="K16" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="M16" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P16" s="2">
         <v>31.536000000000001</v>
@@ -15920,10 +15920,10 @@
         <v>109</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>104</v>
@@ -15970,16 +15970,16 @@
         <v>109</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>80</v>
@@ -15988,16 +15988,16 @@
         <v>79</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="M18" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="P18" s="2">
         <v>1</v>
@@ -16063,16 +16063,16 @@
         <v>77</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>80</v>
@@ -16081,16 +16081,16 @@
         <v>79</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="M19" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="P19" s="2">
         <v>31.536000000000001</v>
@@ -16158,16 +16158,16 @@
         <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>80</v>
@@ -16205,16 +16205,16 @@
     </row>
     <row r="21" spans="2:56" x14ac:dyDescent="0.25">
       <c r="K21" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P21" s="2">
         <v>31.536000000000001</v>
@@ -16291,16 +16291,16 @@
     </row>
     <row r="23" spans="2:56" x14ac:dyDescent="0.25">
       <c r="K23" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="P23" s="2">
         <v>1</v>
@@ -16362,16 +16362,16 @@
     </row>
     <row r="24" spans="2:56" x14ac:dyDescent="0.25">
       <c r="K24" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="P24" s="2">
         <v>31.536000000000001</v>
@@ -16436,16 +16436,16 @@
     </row>
     <row r="25" spans="2:56" x14ac:dyDescent="0.25">
       <c r="K25" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="M25" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P25" s="2">
         <v>1</v>
@@ -16531,16 +16531,16 @@
     </row>
     <row r="27" spans="2:56" x14ac:dyDescent="0.25">
       <c r="K27" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="M27" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="P27" s="2">
         <v>1</v>
@@ -16618,16 +16618,16 @@
     </row>
     <row r="28" spans="2:56" x14ac:dyDescent="0.25">
       <c r="K28" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="M28" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="P28" s="2">
         <v>1</v>
@@ -21823,22 +21823,22 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I3">
         <v>12.7</v>
       </c>
       <c r="J3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N3" s="119" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="R3">
         <v>250000</v>
       </c>
       <c r="S3" s="119" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="4:22" x14ac:dyDescent="0.25">
@@ -21852,7 +21852,7 @@
         <v>100</v>
       </c>
       <c r="S4" s="119" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="4:22" x14ac:dyDescent="0.25">
@@ -21860,7 +21860,7 @@
         <v>1000</v>
       </c>
       <c r="E5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="4:22" x14ac:dyDescent="0.25">
@@ -21869,7 +21869,7 @@
         <v>1270</v>
       </c>
       <c r="S6" s="119" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="4:22" x14ac:dyDescent="0.25">
@@ -21878,12 +21878,12 @@
         <v>30000</v>
       </c>
       <c r="E7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="4:22" x14ac:dyDescent="0.25">
       <c r="U8" s="119" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="V8">
         <v>0.5</v>
@@ -21902,7 +21902,7 @@
         <v>1.2699999999999999E-3</v>
       </c>
       <c r="S9" s="119" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="4:22" x14ac:dyDescent="0.25">
@@ -21937,16 +21937,16 @@
         <v>15.8</v>
       </c>
       <c r="J3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P3" s="119" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="T3">
         <v>200000</v>
       </c>
       <c r="U3" s="119" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="9:21" x14ac:dyDescent="0.25">
@@ -21960,7 +21960,7 @@
         <v>100</v>
       </c>
       <c r="U4" s="119" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="9:21" x14ac:dyDescent="0.25">
@@ -21969,7 +21969,7 @@
         <v>1580</v>
       </c>
       <c r="U7" s="119" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="9:21" x14ac:dyDescent="0.25">
@@ -21981,7 +21981,7 @@
         <v>1.58E-3</v>
       </c>
       <c r="U10" s="119" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="9:21" x14ac:dyDescent="0.25">
@@ -22017,19 +22017,19 @@
   <sheetData>
     <row r="3" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E3" s="119" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I3" s="120">
         <v>4.3019999999999998E-5</v>
       </c>
       <c r="J3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="Q3">
         <v>200000</v>
       </c>
       <c r="R3" s="119" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="5:18" x14ac:dyDescent="0.25">
@@ -22037,13 +22037,13 @@
         <v>0.8</v>
       </c>
       <c r="F4" s="119" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Q4">
         <v>100</v>
       </c>
       <c r="R4" s="119" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="5:18" x14ac:dyDescent="0.25">
@@ -22052,14 +22052,14 @@
         <v>3.4415999999999997E-5</v>
       </c>
       <c r="J7" s="119" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Q7">
         <f>Q3/Q4</f>
         <v>2000</v>
       </c>
       <c r="R7" s="119" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
@@ -22068,7 +22068,7 @@
         <v>193.70835270416862</v>
       </c>
       <c r="R11" s="119" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -22091,7 +22091,7 @@
   <sheetData>
     <row r="1" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1" s="121" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
@@ -22099,12 +22099,12 @@
         <v>150000</v>
       </c>
       <c r="G2" s="119" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C3" s="119" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.25">
@@ -22112,20 +22112,20 @@
         <v>-15</v>
       </c>
       <c r="D4" s="119" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F4" s="119">
         <v>100</v>
       </c>
       <c r="G4" s="119" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I4">
         <f>F2/F4</f>
         <v>1500</v>
       </c>
       <c r="J4" s="119" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
@@ -22133,7 +22133,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="119" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
@@ -22142,10 +22142,10 @@
         <v>53.571428571428569</v>
       </c>
       <c r="J6" s="119" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K6" s="119" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
@@ -22154,7 +22154,7 @@
         <v>107.14285714285714</v>
       </c>
       <c r="K8" s="119" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D580FD-3F91-40AD-BC60-D12DA4038AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ACD0BC-3D33-4F2A-91A0-AEC85CEE4F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="454">
   <si>
     <t>TechName</t>
   </si>
@@ -14378,10 +14378,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:BE44"/>
+  <dimension ref="A2:BE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14395,7 +14395,8 @@
     <col min="7" max="7" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.109375" style="2"/>
-    <col min="10" max="11" width="34.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="89.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" style="2" bestFit="1" customWidth="1"/>
@@ -16435,199 +16436,139 @@
       </c>
     </row>
     <row r="25" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="K25" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="P25" s="2">
-        <v>1</v>
+      <c r="M25" s="1"/>
+      <c r="N25" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="Q25" s="2">
         <v>2030</v>
       </c>
-      <c r="U25" s="2">
-        <v>20</v>
-      </c>
-      <c r="V25" s="2">
-        <v>20</v>
-      </c>
-      <c r="W25" s="2">
-        <v>25</v>
-      </c>
-      <c r="AB25" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AC25" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AD25" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AK25" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL25" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM25" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO25" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AP25" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ25" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="AR25" s="19"/>
-      <c r="AS25" s="19"/>
-      <c r="AT25" s="19"/>
-      <c r="BC25" s="16">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="16"/>
+      <c r="R25" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19"/>
     </row>
     <row r="26" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="N26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O26" s="1"/>
+      <c r="K26" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
       <c r="Q26" s="2">
         <v>2030</v>
       </c>
-      <c r="R26" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="S26" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="T26" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AK26" s="19"/>
-      <c r="AL26" s="19"/>
-      <c r="AM26" s="19"/>
-      <c r="AO26" s="19"/>
-      <c r="AP26" s="19"/>
-      <c r="AQ26" s="19"/>
+      <c r="U26" s="2">
+        <v>20</v>
+      </c>
+      <c r="V26" s="2">
+        <v>20</v>
+      </c>
+      <c r="W26" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB26" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AC26" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AD26" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AK26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO26" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AP26" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ26" s="19">
+        <v>1E-4</v>
+      </c>
       <c r="AR26" s="19"/>
       <c r="AS26" s="19"/>
       <c r="AT26" s="19"/>
-      <c r="BC26" s="16"/>
+      <c r="BC26" s="16">
+        <v>0</v>
+      </c>
       <c r="BD26" s="16"/>
     </row>
     <row r="27" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="K27" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="P27" s="2">
-        <v>1</v>
-      </c>
+      <c r="N27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O27" s="1"/>
       <c r="Q27" s="2">
         <v>2030</v>
       </c>
-      <c r="U27" s="2">
-        <v>20</v>
-      </c>
-      <c r="V27" s="2">
-        <v>20</v>
-      </c>
-      <c r="W27" s="2">
-        <v>25</v>
-      </c>
-      <c r="AB27" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC27" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD27" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK27" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AL27" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AM27" s="19">
-        <v>-3.65</v>
-      </c>
-      <c r="AO27" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
-      </c>
-      <c r="AP27" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
-      </c>
-      <c r="AQ27" s="19">
-        <f>'co2 storage'!$I$8</f>
-        <v>107.14285714285714</v>
-      </c>
+      <c r="R27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
       <c r="AR27" s="19"/>
       <c r="AS27" s="19"/>
       <c r="AT27" s="19"/>
-      <c r="AU27" s="2">
-        <f>0.05*AO27</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AV27" s="2">
-        <f t="shared" ref="AV27" si="0">0.05*AP27</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AW27" s="2">
-        <f t="shared" ref="AW27" si="1">0.05*AQ27</f>
-        <v>5.3571428571428577</v>
-      </c>
-      <c r="AX27" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AY27" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="AZ27" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="BC27" s="16">
-        <v>0</v>
-      </c>
+      <c r="BC27" s="16"/>
       <c r="BD27" s="16"/>
     </row>
     <row r="28" spans="2:56" x14ac:dyDescent="0.25">
       <c r="K28" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M28" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="P28" s="2">
         <v>1</v>
@@ -16644,220 +16585,167 @@
       <c r="W28" s="2">
         <v>25</v>
       </c>
-      <c r="AB28" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AC28" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AD28" s="18">
-        <v>0.95</v>
-      </c>
-      <c r="AK28" s="19" t="s">
+      <c r="AB28" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AL28" s="19" t="s">
+      <c r="AC28" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AM28" s="19" t="s">
+      <c r="AD28" s="18" t="s">
         <v>94</v>
       </c>
+      <c r="AK28" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AL28" s="19">
+        <v>-3.65</v>
+      </c>
+      <c r="AM28" s="19">
+        <v>-3.65</v>
+      </c>
       <c r="AO28" s="19">
-        <v>1E-4</v>
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
       </c>
       <c r="AP28" s="19">
-        <v>1E-4</v>
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
       </c>
       <c r="AQ28" s="19">
-        <v>1E-4</v>
+        <f>'co2 storage'!$I$8</f>
+        <v>107.14285714285714</v>
       </c>
       <c r="AR28" s="19"/>
       <c r="AS28" s="19"/>
       <c r="AT28" s="19"/>
+      <c r="AU28" s="2">
+        <f>0.05*AO28</f>
+        <v>5.3571428571428577</v>
+      </c>
+      <c r="AV28" s="2">
+        <f t="shared" ref="AV28" si="0">0.05*AP28</f>
+        <v>5.3571428571428577</v>
+      </c>
+      <c r="AW28" s="2">
+        <f t="shared" ref="AW28" si="1">0.05*AQ28</f>
+        <v>5.3571428571428577</v>
+      </c>
+      <c r="AX28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AY28" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AZ28" s="2">
+        <v>0.4</v>
+      </c>
       <c r="BC28" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="16"/>
+    </row>
+    <row r="29" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="K29" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="P29" s="2">
         <v>1</v>
-      </c>
-      <c r="BD28" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="N29" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="Q29" s="2">
         <v>2030</v>
       </c>
-      <c r="R29" s="2">
+      <c r="U29" s="2">
+        <v>20</v>
+      </c>
+      <c r="V29" s="2">
+        <v>20</v>
+      </c>
+      <c r="W29" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB29" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AC29" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AD29" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="AK29" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL29" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM29" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO29" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AP29" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ29" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="AR29" s="19"/>
+      <c r="AS29" s="19"/>
+      <c r="AT29" s="19"/>
+      <c r="BC29" s="16">
+        <v>1</v>
+      </c>
+      <c r="BD29" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R30" s="2">
         <v>0.01</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S30" s="2">
         <v>0.01</v>
       </c>
-      <c r="T29" s="2">
+      <c r="T30" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="N38" s="2" t="s">
+    <row r="39" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N39" s="2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P40" s="2">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>2030</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U40" s="2">
-        <v>20</v>
-      </c>
-      <c r="V40" s="2">
-        <v>25</v>
-      </c>
-      <c r="W40" s="2">
-        <v>30</v>
-      </c>
-      <c r="X40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB40" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="AC40" s="2">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="AD40" s="2">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="AE40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO40" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="AP40" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="AQ40" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="AR40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC40" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>80</v>
@@ -16866,22 +16754,19 @@
         <v>79</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N41" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="P41" s="2">
-        <v>1</v>
+        <v>31.536000000000001</v>
       </c>
       <c r="Q41" s="2">
         <v>2030</v>
@@ -16904,25 +16789,34 @@
       <c r="W41" s="2">
         <v>30</v>
       </c>
-      <c r="X41" s="2">
-        <v>14000</v>
-      </c>
-      <c r="Y41" s="2">
-        <v>30000</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>50000</v>
+      <c r="X41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="AA41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB41" s="2" t="s">
+      <c r="AB41" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AE41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC41" s="2" t="s">
+      <c r="AF41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AD41" s="2" t="s">
+      <c r="AG41" s="2" t="s">
         <v>94</v>
       </c>
       <c r="AH41" s="2" t="s">
@@ -16934,206 +16828,340 @@
       <c r="AJ41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AK41" s="2">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="AL41" s="2">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="AM41" s="2">
-        <v>-0.36499999999999999</v>
+      <c r="AK41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM41" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="AN41" s="2" t="s">
         <v>94</v>
       </c>
       <c r="AO41" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AQ41" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AR41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U42" s="2">
+        <v>20</v>
+      </c>
+      <c r="V42" s="2">
+        <v>25</v>
+      </c>
+      <c r="W42" s="2">
+        <v>30</v>
+      </c>
+      <c r="X42" s="2">
+        <v>14000</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>30000</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AA42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK42" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AL42" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AM42" s="2">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="AN42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO42" s="2">
         <f>('180 Lithium Ion Battery'!E25+'180 Lithium Ion Battery'!E27)/0.0000036</f>
         <v>41945.222222222219</v>
       </c>
-      <c r="AP41" s="2">
+      <c r="AP42" s="2">
         <f>('180 Lithium Ion Battery'!F25+'180 Lithium Ion Battery'!F27)/0.0000036</f>
         <v>27766.555555555551</v>
       </c>
-      <c r="AQ41" s="2">
+      <c r="AQ42" s="2">
         <f>('180 Lithium Ion Battery'!G25+'180 Lithium Ion Battery'!G27)/0.0000036</f>
         <v>22154.166666666664</v>
       </c>
-      <c r="AU41" s="2">
+      <c r="AU42" s="2">
         <f>'180 Lithium Ion Battery'!E29/(1000000*0.0000036)</f>
         <v>0.53169999999999995</v>
       </c>
-      <c r="AV41" s="2">
+      <c r="AV42" s="2">
         <f>'180 Lithium Ion Battery'!F29/(1000000*0.0000036)</f>
         <v>0.50216111111111106</v>
       </c>
-      <c r="AW41" s="2">
+      <c r="AW42" s="2">
         <f>'180 Lithium Ion Battery'!G29/(1000000*0.0000036)</f>
         <v>0.47262222222222222</v>
       </c>
-      <c r="AX41" s="2">
+      <c r="AX42" s="2">
         <v>0.2</v>
       </c>
-      <c r="AY41" s="2">
+      <c r="AY42" s="2">
         <v>0.2</v>
       </c>
-      <c r="AZ41" s="2">
+      <c r="AZ42" s="2">
         <v>0.2</v>
       </c>
-      <c r="BC41" s="2">
+      <c r="BC42" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
+    <row r="43" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="O43" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P43" s="2">
         <v>31.536000000000001</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="Q43" s="2">
         <v>2030</v>
       </c>
-      <c r="R42" s="2" t="s">
+      <c r="R43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="S42" s="2" t="s">
+      <c r="S43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="T42" s="2" t="s">
+      <c r="T43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="U42" s="2">
+      <c r="U43" s="2">
         <v>20</v>
       </c>
-      <c r="V42" s="2">
+      <c r="V43" s="2">
         <v>25</v>
       </c>
-      <c r="W42" s="2">
+      <c r="W43" s="2">
         <v>30</v>
       </c>
-      <c r="X42" s="2" t="s">
+      <c r="X43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Y42" s="2" t="s">
+      <c r="Y43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Z42" s="2" t="s">
+      <c r="Z43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA42" s="2" t="s">
+      <c r="AA43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB42" s="2">
+      <c r="AB43" s="2">
         <v>0.97</v>
       </c>
-      <c r="AC42" s="2">
+      <c r="AC43" s="2">
         <v>0.97499999999999998</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AD43" s="2">
         <v>0.97499999999999998</v>
       </c>
-      <c r="AE42" s="2" t="s">
+      <c r="AE43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AF42" s="2" t="s">
+      <c r="AF43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AG42" s="2" t="s">
+      <c r="AG43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AH42" s="2" t="s">
+      <c r="AH43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AI42" s="2" t="s">
+      <c r="AI43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AJ42" s="2" t="s">
+      <c r="AJ43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AK42" s="2" t="s">
+      <c r="AK43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AL42" s="2" t="s">
+      <c r="AL43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AM42" s="2" t="s">
+      <c r="AM43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AN42" s="2" t="s">
+      <c r="AN43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AO42" s="2">
+      <c r="AO43" s="2">
         <f>'180 Lithium Ion Battery'!E26*1000</f>
         <v>170.14399999999998</v>
       </c>
-      <c r="AP42" s="2">
+      <c r="AP43" s="2">
         <f>'180 Lithium Ion Battery'!F26*1000</f>
         <v>106.33999999999999</v>
       </c>
-      <c r="AQ42" s="2">
+      <c r="AQ43" s="2">
         <f>'180 Lithium Ion Battery'!G26*1000</f>
         <v>63.803999999999988</v>
       </c>
-      <c r="AR42" s="17">
+      <c r="AR43" s="17">
         <f>'180 Lithium Ion Battery'!E28</f>
         <v>0.57423599999999997</v>
       </c>
-      <c r="AS42" s="17">
+      <c r="AS43" s="17">
         <f>'180 Lithium Ion Battery'!F28</f>
         <v>0.57423599999999997</v>
       </c>
-      <c r="AT42" s="17">
+      <c r="AT43" s="17">
         <f>'180 Lithium Ion Battery'!G28</f>
         <v>0.57423599999999997</v>
       </c>
-      <c r="AU42" s="2" t="s">
+      <c r="AU43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AV42" s="2" t="s">
+      <c r="AV43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW42" s="2" t="s">
+      <c r="AW43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BC42" s="2">
+      <c r="BC43" s="2">
         <v>1</v>
       </c>
-      <c r="BD42" s="2">
+      <c r="BD43" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="N44" s="2" t="s">
+    <row r="45" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="N45" s="2" t="s">
         <v>94</v>
       </c>
     </row>

--- a/SubRES_TMPL/SubRES_STO_Techs.xlsx
+++ b/SubRES_TMPL/SubRES_STO_Techs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ACD0BC-3D33-4F2A-91A0-AEC85CEE4F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B081831D-AECD-4A48-AA91-C0A8BD6B2F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commodities" sheetId="23" r:id="rId1"/>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="455">
   <si>
     <t>TechName</t>
   </si>
@@ -1859,6 +1859,9 @@
   </si>
   <si>
     <t>PRC_ACTFLO~2050</t>
+  </si>
+  <si>
+    <t>ENV</t>
   </si>
 </sst>
 </file>
@@ -13737,8 +13740,8 @@
   </sheetPr>
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14074,7 +14077,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>454</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>412</v>
@@ -14096,7 +14099,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>119</v>
+        <v>454</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>413</v>
@@ -14380,7 +14383,7 @@
   </sheetPr>
   <dimension ref="A2:BE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
